--- a/opm_hero_property/design/academy.xlsx
+++ b/opm_hero_property/design/academy.xlsx
@@ -1,84 +1,414 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.8.42\oas\PycharmProjects\OPM_PyProject\opm_hero_property\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159B8E1-5D35-4924-BE41-46CD340227E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1185" windowWidth="26775" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>_level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>_hp_pve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atk_pve</t>
   </si>
   <si>
     <t>_def_pve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>_atk_pve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>_hp_pvp</t>
+  </si>
+  <si>
+    <t>_atk_pvp</t>
+  </si>
+  <si>
+    <t>_def_pvp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,9 +416,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -96,17 +668,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -190,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -364,26 +980,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,22 +1002,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,7 +1040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -452,7 +1063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -475,7 +1086,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -498,7 +1109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -521,7 +1132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -544,7 +1155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -567,7 +1178,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -590,7 +1201,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -613,7 +1224,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -636,7 +1247,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -659,7 +1270,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -682,7 +1293,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -705,7 +1316,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -728,7 +1339,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -751,7 +1362,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -774,7 +1385,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -797,7 +1408,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -820,7 +1431,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -843,7 +1454,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -866,7 +1477,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -889,7 +1500,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -912,7 +1523,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -935,7 +1546,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -958,7 +1569,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -981,7 +1592,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1004,7 +1615,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1027,7 +1638,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1050,7 +1661,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1073,7 +1684,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1096,7 +1707,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1119,7 +1730,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1142,7 +1753,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1165,7 +1776,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1188,7 +1799,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1211,7 +1822,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1234,7 +1845,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1257,7 +1868,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1280,7 +1891,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1303,7 +1914,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1326,7 +1937,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1349,7 +1960,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1372,7 +1983,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1395,7 +2006,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1418,7 +2029,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1441,7 +2052,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1464,7 +2075,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1487,7 +2098,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1510,7 +2121,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1533,7 +2144,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1556,7 +2167,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1579,7 +2190,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1602,7 +2213,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1625,7 +2236,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1648,7 +2259,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1671,7 +2282,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1694,7 +2305,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1717,7 +2328,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1740,7 +2351,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1763,7 +2374,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1786,7 +2397,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1809,7 +2420,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1832,7 +2443,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1855,7 +2466,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1878,7 +2489,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1901,7 +2512,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1924,7 +2535,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1947,7 +2558,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1970,7 +2581,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1993,7 +2604,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2016,7 +2627,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2039,7 +2650,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2062,7 +2673,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2085,7 +2696,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2108,7 +2719,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2131,7 +2742,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2154,7 +2765,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2177,7 +2788,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2200,7 +2811,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2223,7 +2834,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2246,7 +2857,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2269,7 +2880,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2292,7 +2903,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2315,7 +2926,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2338,7 +2949,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2361,7 +2972,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2384,7 +2995,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2407,7 +3018,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2430,7 +3041,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2453,7 +3064,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2476,7 +3087,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2499,7 +3110,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2522,7 +3133,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2545,7 +3156,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2568,7 +3179,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2591,7 +3202,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2614,7 +3225,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2637,7 +3248,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2660,7 +3271,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2683,7 +3294,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2706,7 +3317,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2729,7 +3340,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2752,7 +3363,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2775,7 +3386,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2798,7 +3409,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2821,7 +3432,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2844,7 +3455,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2867,7 +3478,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2890,7 +3501,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2913,7 +3524,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2936,7 +3547,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2959,7 +3570,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2982,7 +3593,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3005,7 +3616,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3028,7 +3639,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3051,7 +3662,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3074,7 +3685,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3097,7 +3708,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3120,7 +3731,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3143,7 +3754,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3166,7 +3777,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3189,7 +3800,7 @@
         <v>4747</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3212,7 +3823,7 @@
         <v>4786</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3235,7 +3846,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3258,7 +3869,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3281,7 +3892,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3304,7 +3915,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3327,7 +3938,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3350,7 +3961,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3373,7 +3984,7 @@
         <v>5061</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3396,7 +4007,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3419,7 +4030,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3442,7 +4053,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3465,7 +4076,7 @@
         <v>5218</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3488,7 +4099,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3511,7 +4122,7 @@
         <v>5296</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3534,7 +4145,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3557,7 +4168,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3580,7 +4191,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3603,7 +4214,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3626,7 +4237,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3649,7 +4260,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3672,7 +4283,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3695,7 +4306,7 @@
         <v>5610</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3718,7 +4329,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3741,7 +4352,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3764,7 +4375,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3787,7 +4398,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3810,7 +4421,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3833,7 +4444,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3856,7 +4467,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3879,7 +4490,7 @@
         <v>5924</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3902,7 +4513,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3925,7 +4536,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3948,7 +4559,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3971,7 +4582,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3994,7 +4605,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4017,7 +4628,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4040,7 +4651,7 @@
         <v>6198</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4063,7 +4674,7 @@
         <v>6238</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4086,7 +4697,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4109,7 +4720,7 @@
         <v>6316</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4132,7 +4743,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4155,7 +4766,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4178,7 +4789,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4201,7 +4812,7 @@
         <v>6473</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4224,7 +4835,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4247,7 +4858,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4270,7 +4881,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4293,7 +4904,7 @@
         <v>6630</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4316,7 +4927,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4339,7 +4950,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4362,7 +4973,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4385,7 +4996,7 @@
         <v>6787</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4408,7 +5019,7 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4431,7 +5042,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4454,7 +5065,7 @@
         <v>6905</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4477,7 +5088,7 @@
         <v>6944</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4500,7 +5111,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4523,7 +5134,7 @@
         <v>7022</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4546,7 +5157,7 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4569,7 +5180,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4592,7 +5203,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4615,7 +5226,7 @@
         <v>7179</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4638,7 +5249,7 @@
         <v>7219</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4661,7 +5272,7 @@
         <v>7258</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4684,7 +5295,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4707,7 +5318,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4730,7 +5341,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4753,7 +5364,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4776,7 +5387,7 @@
         <v>7454</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4799,7 +5410,7 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4822,7 +5433,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4845,7 +5456,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4868,7 +5479,7 @@
         <v>7611</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4891,7 +5502,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4914,7 +5525,7 @@
         <v>7689</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4937,7 +5548,7 @@
         <v>7729</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4960,7 +5571,7 @@
         <v>7768</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4983,7 +5594,7 @@
         <v>7807</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5006,7 +5617,7 @@
         <v>7846</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5029,7 +5640,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5052,7 +5663,7 @@
         <v>7925</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5075,7 +5686,7 @@
         <v>7964</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5098,7 +5709,7 @@
         <v>8003</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5121,7 +5732,7 @@
         <v>8042</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5144,7 +5755,7 @@
         <v>8082</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5167,7 +5778,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5190,7 +5801,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5213,7 +5824,7 @@
         <v>8199</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5236,7 +5847,7 @@
         <v>8239</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5259,7 +5870,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5282,7 +5893,7 @@
         <v>8317</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5305,7 +5916,7 @@
         <v>8356</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5328,7 +5939,7 @@
         <v>8396</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5351,7 +5962,7 @@
         <v>8435</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5374,7 +5985,7 @@
         <v>8474</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5397,7 +6008,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5420,7 +6031,7 @@
         <v>8552</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5443,7 +6054,7 @@
         <v>8592</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5466,7 +6077,7 @@
         <v>8631</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5489,7 +6100,7 @@
         <v>8670</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5512,7 +6123,7 @@
         <v>8709</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5535,7 +6146,7 @@
         <v>8749</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5558,7 +6169,7 @@
         <v>8788</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5581,7 +6192,7 @@
         <v>8827</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5604,7 +6215,7 @@
         <v>8866</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5627,7 +6238,7 @@
         <v>8906</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5650,7 +6261,7 @@
         <v>8945</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5673,7 +6284,7 @@
         <v>8984</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5696,7 +6307,7 @@
         <v>9023</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5719,7 +6330,7 @@
         <v>9062</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5742,7 +6353,7 @@
         <v>9102</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5765,7 +6376,7 @@
         <v>9141</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5788,7 +6399,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5811,7 +6422,7 @@
         <v>9219</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5834,7 +6445,7 @@
         <v>9259</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5857,7 +6468,7 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5880,7 +6491,7 @@
         <v>9337</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5903,7 +6514,7 @@
         <v>9376</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5926,7 +6537,7 @@
         <v>9416</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5949,7 +6560,7 @@
         <v>9455</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5972,7 +6583,7 @@
         <v>9494</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5995,7 +6606,7 @@
         <v>9533</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6018,7 +6629,7 @@
         <v>9573</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6041,7 +6652,7 @@
         <v>9612</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6064,7 +6675,7 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6087,7 +6698,7 @@
         <v>9690</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6110,7 +6721,7 @@
         <v>9729</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6133,7 +6744,7 @@
         <v>9769</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6156,7 +6767,7 @@
         <v>9808</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6179,7 +6790,7 @@
         <v>9847</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6202,7 +6813,7 @@
         <v>9886</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6225,7 +6836,7 @@
         <v>9926</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6248,7 +6859,7 @@
         <v>9965</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6271,7 +6882,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6294,7 +6905,7 @@
         <v>10043</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6317,7 +6928,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6340,7 +6951,7 @@
         <v>10122</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6363,7 +6974,7 @@
         <v>10161</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6386,7 +6997,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6409,7 +7020,7 @@
         <v>10240</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6432,7 +7043,7 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6455,7 +7066,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6478,7 +7089,7 @@
         <v>10357</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6501,7 +7112,7 @@
         <v>10396</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6524,7 +7135,7 @@
         <v>10436</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6547,7 +7158,7 @@
         <v>10475</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6570,7 +7181,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6593,7 +7204,7 @@
         <v>10553</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6616,7 +7227,7 @@
         <v>10593</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6639,7 +7250,7 @@
         <v>10632</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6662,7 +7273,7 @@
         <v>10671</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6685,7 +7296,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6708,7 +7319,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6731,7 +7342,7 @@
         <v>10789</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6754,7 +7365,7 @@
         <v>10828</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6777,7 +7388,7 @@
         <v>10867</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6800,7 +7411,7 @@
         <v>10906</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6823,7 +7434,7 @@
         <v>10946</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6846,7 +7457,7 @@
         <v>10985</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6869,7 +7480,7 @@
         <v>11024</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6892,7 +7503,7 @@
         <v>11063</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -6915,7 +7526,7 @@
         <v>11103</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -6938,7 +7549,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -6961,7 +7572,7 @@
         <v>11181</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -6984,7 +7595,7 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7007,7 +7618,7 @@
         <v>11260</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7030,7 +7641,7 @@
         <v>11299</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7053,7 +7664,7 @@
         <v>11338</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7076,7 +7687,7 @@
         <v>11377</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7099,7 +7710,7 @@
         <v>11417</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7122,7 +7733,7 @@
         <v>11456</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7145,7 +7756,7 @@
         <v>11495</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7168,7 +7779,7 @@
         <v>11534</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7191,7 +7802,7 @@
         <v>11573</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7214,7 +7825,7 @@
         <v>11613</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7237,7 +7848,7 @@
         <v>11652</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7260,7 +7871,7 @@
         <v>11691</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7283,7 +7894,7 @@
         <v>11730</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7306,7 +7917,7 @@
         <v>11770</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -7329,7 +7940,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -7352,7 +7963,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -7375,7 +7986,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -7398,7 +8009,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -7421,7 +8032,7 @@
         <v>11966</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -7444,7 +8055,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -7467,7 +8078,7 @@
         <v>12044</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -7490,7 +8101,7 @@
         <v>12083</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -7513,7 +8124,7 @@
         <v>12123</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -7536,7 +8147,7 @@
         <v>12162</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -7559,7 +8170,7 @@
         <v>12201</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -7582,7 +8193,7 @@
         <v>12240</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -7605,7 +8216,7 @@
         <v>12280</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -7628,7 +8239,7 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -7651,7 +8262,7 @@
         <v>12358</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -7674,7 +8285,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -7697,7 +8308,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -7720,7 +8331,7 @@
         <v>12476</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -7743,7 +8354,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -7766,7 +8377,7 @@
         <v>12554</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -7789,7 +8400,7 @@
         <v>12594</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -7812,7 +8423,7 @@
         <v>12633</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -7835,7 +8446,7 @@
         <v>12672</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -7858,7 +8469,7 @@
         <v>12711</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -7881,7 +8492,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -7904,7 +8515,7 @@
         <v>12790</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -7927,7 +8538,7 @@
         <v>12829</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -7950,7 +8561,7 @@
         <v>12868</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -7973,7 +8584,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -7996,7 +8607,7 @@
         <v>12947</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8019,7 +8630,7 @@
         <v>12986</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8042,7 +8653,7 @@
         <v>13025</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8065,7 +8676,7 @@
         <v>13064</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8088,7 +8699,7 @@
         <v>13104</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8111,7 +8722,7 @@
         <v>13143</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8134,7 +8745,7 @@
         <v>13182</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8157,7 +8768,7 @@
         <v>13221</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8180,7 +8791,7 @@
         <v>13260</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8203,7 +8814,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8226,7 +8837,7 @@
         <v>13339</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8249,7 +8860,7 @@
         <v>13378</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8272,7 +8883,7 @@
         <v>13417</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8295,7 +8906,7 @@
         <v>13457</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8318,7 +8929,7 @@
         <v>13496</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8341,7 +8952,7 @@
         <v>13535</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8364,7 +8975,7 @@
         <v>13574</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -8387,7 +8998,7 @@
         <v>13614</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8410,7 +9021,7 @@
         <v>13653</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8433,7 +9044,7 @@
         <v>13692</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -8457,7 +9068,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/opm_hero_property/design/academy.xlsx
+++ b/opm_hero_property/design/academy.xlsx
@@ -43,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -70,6 +70,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -78,38 +86,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -124,7 +101,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,22 +157,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,33 +191,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,19 +223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,19 +247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,91 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +295,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,21 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -474,17 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,6 +470,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,148 +499,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -988,8 +988,8 @@
   <sheetPr/>
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1024,12 +1024,8 @@
       <c r="B2">
         <v>200</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2">
         <v>339</v>
       </c>
@@ -1050,9 +1046,7 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
         <v>679</v>
       </c>
@@ -1367,13 +1361,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2739</v>
+        <v>2682</v>
       </c>
       <c r="C17">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E17">
         <v>5439</v>
@@ -1390,13 +1384,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3079</v>
+        <v>2964</v>
       </c>
       <c r="C18">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="D18">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="E18">
         <v>5779</v>
@@ -1413,13 +1407,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3419</v>
+        <v>3247</v>
       </c>
       <c r="C19">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="D19">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="E19">
         <v>6119</v>
@@ -1436,13 +1430,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3759</v>
+        <v>3529</v>
       </c>
       <c r="C20">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="D20">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="E20">
         <v>6459</v>
@@ -1459,13 +1453,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4099</v>
+        <v>3812</v>
       </c>
       <c r="C21">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="D21">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="E21">
         <v>6799</v>
@@ -1482,13 +1476,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4625</v>
+        <v>4131</v>
       </c>
       <c r="C22">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="D22">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="E22">
         <v>7324</v>
@@ -1505,13 +1499,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5150</v>
+        <v>4450</v>
       </c>
       <c r="C23">
-        <v>565</v>
+        <v>660</v>
       </c>
       <c r="D23">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="E23">
         <v>7850</v>
@@ -1528,13 +1522,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5499</v>
+        <v>4769</v>
       </c>
       <c r="C24">
-        <v>600</v>
+        <v>716</v>
       </c>
       <c r="D24">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="E24">
         <v>8198</v>
@@ -1551,13 +1545,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5847</v>
+        <v>5088</v>
       </c>
       <c r="C25">
-        <v>635</v>
+        <v>771</v>
       </c>
       <c r="D25">
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="E25">
         <v>8547</v>
@@ -1574,13 +1568,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6196</v>
+        <v>5407</v>
       </c>
       <c r="C26">
-        <v>670</v>
+        <v>827</v>
       </c>
       <c r="D26">
-        <v>570</v>
+        <v>697</v>
       </c>
       <c r="E26">
         <v>8895</v>
@@ -1597,13 +1591,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6544</v>
+        <v>5858</v>
       </c>
       <c r="C27">
-        <v>705</v>
+        <v>905</v>
       </c>
       <c r="D27">
-        <v>600</v>
+        <v>759</v>
       </c>
       <c r="E27">
         <v>9243</v>
@@ -1620,13 +1614,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6892</v>
+        <v>6308</v>
       </c>
       <c r="C28">
-        <v>740</v>
+        <v>984</v>
       </c>
       <c r="D28">
-        <v>630</v>
+        <v>821</v>
       </c>
       <c r="E28">
         <v>9592</v>
@@ -1643,13 +1637,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7167</v>
+        <v>6758</v>
       </c>
       <c r="C29">
-        <v>775</v>
+        <v>1062</v>
       </c>
       <c r="D29">
-        <v>660</v>
+        <v>883</v>
       </c>
       <c r="E29">
         <v>9866</v>
@@ -1666,13 +1660,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7441</v>
+        <v>7209</v>
       </c>
       <c r="C30">
-        <v>810</v>
+        <v>1141</v>
       </c>
       <c r="D30">
-        <v>690</v>
+        <v>946</v>
       </c>
       <c r="E30">
         <v>10140</v>
@@ -1689,13 +1683,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7715</v>
+        <v>7659</v>
       </c>
       <c r="C31">
-        <v>845</v>
+        <v>1219</v>
       </c>
       <c r="D31">
-        <v>720</v>
+        <v>1008</v>
       </c>
       <c r="E31">
         <v>10414</v>
@@ -1712,13 +1706,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7902</v>
+        <v>8358</v>
       </c>
       <c r="C32">
-        <v>880</v>
+        <v>1341</v>
       </c>
       <c r="D32">
-        <v>750</v>
+        <v>1135</v>
       </c>
       <c r="E32">
         <v>10602</v>
@@ -1735,13 +1729,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8090</v>
+        <v>9057</v>
       </c>
       <c r="C33">
-        <v>915</v>
+        <v>1463</v>
       </c>
       <c r="D33">
-        <v>780</v>
+        <v>1262</v>
       </c>
       <c r="E33">
         <v>10790</v>
@@ -1758,13 +1752,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8278</v>
+        <v>9756</v>
       </c>
       <c r="C34">
-        <v>950</v>
+        <v>1584</v>
       </c>
       <c r="D34">
-        <v>810</v>
+        <v>1389</v>
       </c>
       <c r="E34">
         <v>10977</v>
@@ -1781,13 +1775,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8466</v>
+        <v>10455</v>
       </c>
       <c r="C35">
-        <v>985</v>
+        <v>1706</v>
       </c>
       <c r="D35">
-        <v>840</v>
+        <v>1517</v>
       </c>
       <c r="E35">
         <v>11165</v>
@@ -1804,13 +1798,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8654</v>
+        <v>11154</v>
       </c>
       <c r="C36">
-        <v>1020</v>
+        <v>1828</v>
       </c>
       <c r="D36">
-        <v>870</v>
+        <v>1644</v>
       </c>
       <c r="E36">
         <v>11353</v>
@@ -1827,13 +1821,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8845</v>
+        <v>12217</v>
       </c>
       <c r="C37">
-        <v>1055</v>
+        <v>2013</v>
       </c>
       <c r="D37">
-        <v>900</v>
+        <v>1841</v>
       </c>
       <c r="E37">
         <v>11544</v>
@@ -1850,13 +1844,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>9036</v>
+        <v>13280</v>
       </c>
       <c r="C38">
-        <v>1090</v>
+        <v>2198</v>
       </c>
       <c r="D38">
-        <v>930</v>
+        <v>2037</v>
       </c>
       <c r="E38">
         <v>11736</v>
@@ -1873,13 +1867,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>9228</v>
+        <v>14343</v>
       </c>
       <c r="C39">
-        <v>1125</v>
+        <v>2383</v>
       </c>
       <c r="D39">
-        <v>960</v>
+        <v>2234</v>
       </c>
       <c r="E39">
         <v>11927</v>
@@ -1896,13 +1890,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>9419</v>
+        <v>15406</v>
       </c>
       <c r="C40">
-        <v>1160</v>
+        <v>2568</v>
       </c>
       <c r="D40">
-        <v>990</v>
+        <v>2431</v>
       </c>
       <c r="E40">
         <v>12118</v>
@@ -1919,13 +1913,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>9610</v>
+        <v>16469</v>
       </c>
       <c r="C41">
-        <v>1195</v>
+        <v>2753</v>
       </c>
       <c r="D41">
-        <v>1020</v>
+        <v>2628</v>
       </c>
       <c r="E41">
         <v>12309</v>
@@ -1942,13 +1936,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9798</v>
+        <v>18086</v>
       </c>
       <c r="C42">
-        <v>1230</v>
+        <v>3034</v>
       </c>
       <c r="D42">
-        <v>1050</v>
+        <v>2930</v>
       </c>
       <c r="E42">
         <v>12497</v>
@@ -1965,13 +1959,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9986</v>
+        <v>19702</v>
       </c>
       <c r="C43">
-        <v>1265</v>
+        <v>3315</v>
       </c>
       <c r="D43">
-        <v>1080</v>
+        <v>3232</v>
       </c>
       <c r="E43">
         <v>12685</v>
@@ -1988,13 +1982,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10174</v>
+        <v>21318</v>
       </c>
       <c r="C44">
-        <v>1300</v>
+        <v>3595</v>
       </c>
       <c r="D44">
-        <v>1110</v>
+        <v>3534</v>
       </c>
       <c r="E44">
         <v>12873</v>
@@ -2011,13 +2005,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10362</v>
+        <v>22935</v>
       </c>
       <c r="C45">
-        <v>1335</v>
+        <v>3876</v>
       </c>
       <c r="D45">
-        <v>1140</v>
+        <v>3837</v>
       </c>
       <c r="E45">
         <v>13061</v>
@@ -2034,13 +2028,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10550</v>
+        <v>24551</v>
       </c>
       <c r="C46">
-        <v>1370</v>
+        <v>4157</v>
       </c>
       <c r="D46">
-        <v>1170</v>
+        <v>4139</v>
       </c>
       <c r="E46">
         <v>13249</v>
@@ -2057,13 +2051,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>10738</v>
+        <v>27088</v>
       </c>
       <c r="C47">
-        <v>1405</v>
+        <v>4599</v>
       </c>
       <c r="D47">
-        <v>1200</v>
+        <v>4535</v>
       </c>
       <c r="E47">
         <v>13437</v>
@@ -2080,13 +2074,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10926</v>
+        <v>29625</v>
       </c>
       <c r="C48">
-        <v>1440</v>
+        <v>5041</v>
       </c>
       <c r="D48">
-        <v>1230</v>
+        <v>4932</v>
       </c>
       <c r="E48">
         <v>13625</v>
@@ -2103,13 +2097,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>11114</v>
+        <v>32163</v>
       </c>
       <c r="C49">
-        <v>1475</v>
+        <v>5483</v>
       </c>
       <c r="D49">
-        <v>1260</v>
+        <v>5328</v>
       </c>
       <c r="E49">
         <v>13813</v>
@@ -2126,13 +2120,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>11301</v>
+        <v>34700</v>
       </c>
       <c r="C50">
-        <v>1510</v>
+        <v>5925</v>
       </c>
       <c r="D50">
-        <v>1290</v>
+        <v>5724</v>
       </c>
       <c r="E50">
         <v>14001</v>
@@ -2149,13 +2143,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>11489</v>
+        <v>37237</v>
       </c>
       <c r="C51">
-        <v>1545</v>
+        <v>6367</v>
       </c>
       <c r="D51">
-        <v>1320</v>
+        <v>6121</v>
       </c>
       <c r="E51">
         <v>14189</v>
@@ -2172,13 +2166,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11677</v>
+        <v>39775</v>
       </c>
       <c r="C52">
-        <v>1580</v>
+        <v>6809</v>
       </c>
       <c r="D52">
-        <v>1350</v>
+        <v>6517</v>
       </c>
       <c r="E52">
         <v>14376</v>
@@ -2195,13 +2189,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11865</v>
+        <v>42312</v>
       </c>
       <c r="C53">
-        <v>1615</v>
+        <v>7251</v>
       </c>
       <c r="D53">
-        <v>1380</v>
+        <v>6914</v>
       </c>
       <c r="E53">
         <v>14564</v>
@@ -2218,13 +2212,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>12053</v>
+        <v>44849</v>
       </c>
       <c r="C54">
-        <v>1650</v>
+        <v>7693</v>
       </c>
       <c r="D54">
-        <v>1410</v>
+        <v>7310</v>
       </c>
       <c r="E54">
         <v>14752</v>
@@ -2241,13 +2235,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>12241</v>
+        <v>47387</v>
       </c>
       <c r="C55">
-        <v>1685</v>
+        <v>8135</v>
       </c>
       <c r="D55">
-        <v>1440</v>
+        <v>7706</v>
       </c>
       <c r="E55">
         <v>14940</v>
@@ -2264,13 +2258,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>12429</v>
+        <v>49924</v>
       </c>
       <c r="C56">
-        <v>1720</v>
+        <v>8577</v>
       </c>
       <c r="D56">
-        <v>1470</v>
+        <v>8103</v>
       </c>
       <c r="E56">
         <v>15128</v>
@@ -2287,13 +2281,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>12616</v>
+        <v>52461</v>
       </c>
       <c r="C57">
-        <v>1755</v>
+        <v>9019</v>
       </c>
       <c r="D57">
-        <v>1500</v>
+        <v>8499</v>
       </c>
       <c r="E57">
         <v>15316</v>
@@ -2310,13 +2304,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>12804</v>
+        <v>54998</v>
       </c>
       <c r="C58">
-        <v>1790</v>
+        <v>9461</v>
       </c>
       <c r="D58">
-        <v>1530</v>
+        <v>8896</v>
       </c>
       <c r="E58">
         <v>15504</v>
@@ -2333,13 +2327,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>12992</v>
+        <v>57536</v>
       </c>
       <c r="C59">
-        <v>1825</v>
+        <v>9903</v>
       </c>
       <c r="D59">
-        <v>1560</v>
+        <v>9292</v>
       </c>
       <c r="E59">
         <v>15691</v>
@@ -2356,13 +2350,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>13180</v>
+        <v>60073</v>
       </c>
       <c r="C60">
-        <v>1860</v>
+        <v>10345</v>
       </c>
       <c r="D60">
-        <v>1590</v>
+        <v>9689</v>
       </c>
       <c r="E60">
         <v>15879</v>
@@ -2379,13 +2373,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>13368</v>
+        <v>62610</v>
       </c>
       <c r="C61">
-        <v>1895</v>
+        <v>10787</v>
       </c>
       <c r="D61">
-        <v>1620</v>
+        <v>10085</v>
       </c>
       <c r="E61">
         <v>16067</v>
@@ -2402,13 +2396,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>13556</v>
+        <v>65148</v>
       </c>
       <c r="C62">
-        <v>1930</v>
+        <v>11229</v>
       </c>
       <c r="D62">
-        <v>1650</v>
+        <v>10481</v>
       </c>
       <c r="E62">
         <v>16255</v>
@@ -2425,13 +2419,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>13744</v>
+        <v>67685</v>
       </c>
       <c r="C63">
-        <v>1965</v>
+        <v>11671</v>
       </c>
       <c r="D63">
-        <v>1680</v>
+        <v>10878</v>
       </c>
       <c r="E63">
         <v>16443</v>
@@ -2448,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>13931</v>
+        <v>70222</v>
       </c>
       <c r="C64">
-        <v>2000</v>
+        <v>12112</v>
       </c>
       <c r="D64">
-        <v>1710</v>
+        <v>11274</v>
       </c>
       <c r="E64">
         <v>16631</v>
@@ -2471,13 +2465,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>14119</v>
+        <v>72760</v>
       </c>
       <c r="C65">
-        <v>2035</v>
+        <v>12554</v>
       </c>
       <c r="D65">
-        <v>1740</v>
+        <v>11671</v>
       </c>
       <c r="E65">
         <v>16819</v>
@@ -2494,13 +2488,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>14307</v>
+        <v>75297</v>
       </c>
       <c r="C66">
-        <v>2070</v>
+        <v>12996</v>
       </c>
       <c r="D66">
-        <v>1770</v>
+        <v>12067</v>
       </c>
       <c r="E66">
         <v>17006</v>
@@ -2517,13 +2511,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>14495</v>
+        <v>77834</v>
       </c>
       <c r="C67">
-        <v>2105</v>
+        <v>13438</v>
       </c>
       <c r="D67">
-        <v>1800</v>
+        <v>12463</v>
       </c>
       <c r="E67">
         <v>17194</v>
@@ -2540,13 +2534,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>14683</v>
+        <v>80371</v>
       </c>
       <c r="C68">
-        <v>2140</v>
+        <v>13880</v>
       </c>
       <c r="D68">
-        <v>1830</v>
+        <v>12860</v>
       </c>
       <c r="E68">
         <v>17382</v>
@@ -2563,13 +2557,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>14871</v>
+        <v>82909</v>
       </c>
       <c r="C69">
-        <v>2175</v>
+        <v>14322</v>
       </c>
       <c r="D69">
-        <v>1860</v>
+        <v>13256</v>
       </c>
       <c r="E69">
         <v>17570</v>
@@ -2586,13 +2580,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>15059</v>
+        <v>85446</v>
       </c>
       <c r="C70">
-        <v>2210</v>
+        <v>14764</v>
       </c>
       <c r="D70">
-        <v>1890</v>
+        <v>13653</v>
       </c>
       <c r="E70">
         <v>17758</v>
@@ -2609,13 +2603,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>15246</v>
+        <v>87983</v>
       </c>
       <c r="C71">
-        <v>2245</v>
+        <v>15206</v>
       </c>
       <c r="D71">
-        <v>1920</v>
+        <v>14049</v>
       </c>
       <c r="E71">
         <v>17946</v>
@@ -2632,13 +2626,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>15434</v>
+        <v>90521</v>
       </c>
       <c r="C72">
-        <v>2280</v>
+        <v>15648</v>
       </c>
       <c r="D72">
-        <v>1950</v>
+        <v>14446</v>
       </c>
       <c r="E72">
         <v>18134</v>
@@ -2655,13 +2649,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>15622</v>
+        <v>93058</v>
       </c>
       <c r="C73">
-        <v>2315</v>
+        <v>16090</v>
       </c>
       <c r="D73">
-        <v>1980</v>
+        <v>14842</v>
       </c>
       <c r="E73">
         <v>18321</v>
@@ -2678,13 +2672,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>15810</v>
+        <v>95595</v>
       </c>
       <c r="C74">
-        <v>2350</v>
+        <v>16532</v>
       </c>
       <c r="D74">
-        <v>2010</v>
+        <v>15238</v>
       </c>
       <c r="E74">
         <v>18509</v>
@@ -2701,13 +2695,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>15998</v>
+        <v>98133</v>
       </c>
       <c r="C75">
-        <v>2385</v>
+        <v>16974</v>
       </c>
       <c r="D75">
-        <v>2040</v>
+        <v>15635</v>
       </c>
       <c r="E75">
         <v>18697</v>
@@ -2724,13 +2718,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>16186</v>
+        <v>100670</v>
       </c>
       <c r="C76">
-        <v>2420</v>
+        <v>17416</v>
       </c>
       <c r="D76">
-        <v>2070</v>
+        <v>16031</v>
       </c>
       <c r="E76">
         <v>18885</v>
@@ -2747,13 +2741,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>16374</v>
+        <v>103207</v>
       </c>
       <c r="C77">
-        <v>2455</v>
+        <v>17858</v>
       </c>
       <c r="D77">
-        <v>2100</v>
+        <v>16428</v>
       </c>
       <c r="E77">
         <v>19073</v>
@@ -2770,13 +2764,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>16561</v>
+        <v>105744</v>
       </c>
       <c r="C78">
-        <v>2490</v>
+        <v>18300</v>
       </c>
       <c r="D78">
-        <v>2130</v>
+        <v>16824</v>
       </c>
       <c r="E78">
         <v>19261</v>
@@ -2793,13 +2787,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>16749</v>
+        <v>108282</v>
       </c>
       <c r="C79">
-        <v>2525</v>
+        <v>18742</v>
       </c>
       <c r="D79">
-        <v>2160</v>
+        <v>17220</v>
       </c>
       <c r="E79">
         <v>19449</v>
@@ -2816,13 +2810,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>16937</v>
+        <v>110819</v>
       </c>
       <c r="C80">
-        <v>2560</v>
+        <v>19184</v>
       </c>
       <c r="D80">
-        <v>2190</v>
+        <v>17617</v>
       </c>
       <c r="E80">
         <v>19637</v>
@@ -2839,13 +2833,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>17125</v>
+        <v>113356</v>
       </c>
       <c r="C81">
-        <v>2595</v>
+        <v>19626</v>
       </c>
       <c r="D81">
-        <v>2220</v>
+        <v>18013</v>
       </c>
       <c r="E81">
         <v>19824</v>
@@ -2862,13 +2856,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>17313</v>
+        <v>115894</v>
       </c>
       <c r="C82">
-        <v>2630</v>
+        <v>20068</v>
       </c>
       <c r="D82">
-        <v>2250</v>
+        <v>18410</v>
       </c>
       <c r="E82">
         <v>20012</v>
@@ -2885,13 +2879,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>17501</v>
+        <v>118431</v>
       </c>
       <c r="C83">
-        <v>2665</v>
+        <v>20509</v>
       </c>
       <c r="D83">
-        <v>2280</v>
+        <v>18806</v>
       </c>
       <c r="E83">
         <v>20200</v>
@@ -2908,13 +2902,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>17689</v>
+        <v>120968</v>
       </c>
       <c r="C84">
-        <v>2700</v>
+        <v>20951</v>
       </c>
       <c r="D84">
-        <v>2310</v>
+        <v>19202</v>
       </c>
       <c r="E84">
         <v>20388</v>
@@ -2931,13 +2925,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>17876</v>
+        <v>123506</v>
       </c>
       <c r="C85">
-        <v>2735</v>
+        <v>21393</v>
       </c>
       <c r="D85">
-        <v>2340</v>
+        <v>19599</v>
       </c>
       <c r="E85">
         <v>20576</v>
@@ -2954,13 +2948,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>18064</v>
+        <v>126043</v>
       </c>
       <c r="C86">
-        <v>2770</v>
+        <v>21835</v>
       </c>
       <c r="D86">
-        <v>2370</v>
+        <v>19995</v>
       </c>
       <c r="E86">
         <v>20764</v>
@@ -2977,13 +2971,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>18252</v>
+        <v>128921</v>
       </c>
       <c r="C87">
-        <v>2805</v>
+        <v>22337</v>
       </c>
       <c r="D87">
-        <v>2400</v>
+        <v>20447</v>
       </c>
       <c r="E87">
         <v>20952</v>
@@ -3000,13 +2994,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>18440</v>
+        <v>131798</v>
       </c>
       <c r="C88">
-        <v>2840</v>
+        <v>22838</v>
       </c>
       <c r="D88">
-        <v>2430</v>
+        <v>20898</v>
       </c>
       <c r="E88">
         <v>21139</v>
@@ -3023,13 +3017,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>18628</v>
+        <v>134676</v>
       </c>
       <c r="C89">
-        <v>2875</v>
+        <v>23339</v>
       </c>
       <c r="D89">
-        <v>2460</v>
+        <v>21350</v>
       </c>
       <c r="E89">
         <v>21327</v>
@@ -3046,13 +3040,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>18816</v>
+        <v>137554</v>
       </c>
       <c r="C90">
-        <v>2910</v>
+        <v>23840</v>
       </c>
       <c r="D90">
-        <v>2490</v>
+        <v>21801</v>
       </c>
       <c r="E90">
         <v>21515</v>
@@ -3069,13 +3063,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>19004</v>
+        <v>140431</v>
       </c>
       <c r="C91">
-        <v>2945</v>
+        <v>24341</v>
       </c>
       <c r="D91">
-        <v>2520</v>
+        <v>22252</v>
       </c>
       <c r="E91">
         <v>21703</v>
@@ -3092,13 +3086,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>19191</v>
+        <v>143309</v>
       </c>
       <c r="C92">
-        <v>2980</v>
+        <v>24843</v>
       </c>
       <c r="D92">
-        <v>2550</v>
+        <v>22704</v>
       </c>
       <c r="E92">
         <v>21891</v>
@@ -3115,13 +3109,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>19379</v>
+        <v>146187</v>
       </c>
       <c r="C93">
-        <v>3015</v>
+        <v>25344</v>
       </c>
       <c r="D93">
-        <v>2580</v>
+        <v>23155</v>
       </c>
       <c r="E93">
         <v>22079</v>
@@ -3138,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>19567</v>
+        <v>149064</v>
       </c>
       <c r="C94">
-        <v>3050</v>
+        <v>25845</v>
       </c>
       <c r="D94">
-        <v>2610</v>
+        <v>23607</v>
       </c>
       <c r="E94">
         <v>22266</v>
@@ -3161,13 +3155,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>19755</v>
+        <v>151942</v>
       </c>
       <c r="C95">
-        <v>3085</v>
+        <v>26346</v>
       </c>
       <c r="D95">
-        <v>2640</v>
+        <v>24058</v>
       </c>
       <c r="E95">
         <v>22454</v>
@@ -3184,13 +3178,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>19943</v>
+        <v>154820</v>
       </c>
       <c r="C96">
-        <v>3120</v>
+        <v>26848</v>
       </c>
       <c r="D96">
-        <v>2670</v>
+        <v>24510</v>
       </c>
       <c r="E96">
         <v>22642</v>
@@ -3207,13 +3201,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>20131</v>
+        <v>157698</v>
       </c>
       <c r="C97">
-        <v>3155</v>
+        <v>27349</v>
       </c>
       <c r="D97">
-        <v>2700</v>
+        <v>24961</v>
       </c>
       <c r="E97">
         <v>22830</v>
@@ -3230,13 +3224,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>20318</v>
+        <v>160575</v>
       </c>
       <c r="C98">
-        <v>3190</v>
+        <v>27850</v>
       </c>
       <c r="D98">
-        <v>2730</v>
+        <v>25412</v>
       </c>
       <c r="E98">
         <v>23018</v>
@@ -3253,13 +3247,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>20506</v>
+        <v>163453</v>
       </c>
       <c r="C99">
-        <v>3225</v>
+        <v>28351</v>
       </c>
       <c r="D99">
-        <v>2760</v>
+        <v>25864</v>
       </c>
       <c r="E99">
         <v>23206</v>
@@ -3276,13 +3270,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>20694</v>
+        <v>166331</v>
       </c>
       <c r="C100">
-        <v>3260</v>
+        <v>28853</v>
       </c>
       <c r="D100">
-        <v>2790</v>
+        <v>26315</v>
       </c>
       <c r="E100">
         <v>23394</v>
@@ -3299,13 +3293,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>20882</v>
+        <v>169208</v>
       </c>
       <c r="C101">
-        <v>3295</v>
+        <v>29354</v>
       </c>
       <c r="D101">
-        <v>2820</v>
+        <v>26767</v>
       </c>
       <c r="E101">
         <v>23581</v>
@@ -3322,13 +3316,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>21070</v>
+        <v>172086</v>
       </c>
       <c r="C102">
-        <v>3330</v>
+        <v>29855</v>
       </c>
       <c r="D102">
-        <v>2850</v>
+        <v>27218</v>
       </c>
       <c r="E102">
         <v>23769</v>
@@ -3345,13 +3339,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>21258</v>
+        <v>174964</v>
       </c>
       <c r="C103">
-        <v>3365</v>
+        <v>30356</v>
       </c>
       <c r="D103">
-        <v>2880</v>
+        <v>27670</v>
       </c>
       <c r="E103">
         <v>23957</v>
@@ -3368,13 +3362,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>21446</v>
+        <v>177842</v>
       </c>
       <c r="C104">
-        <v>3400</v>
+        <v>30858</v>
       </c>
       <c r="D104">
-        <v>2910</v>
+        <v>28121</v>
       </c>
       <c r="E104">
         <v>24145</v>
@@ -3391,13 +3385,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>21633</v>
+        <v>180719</v>
       </c>
       <c r="C105">
-        <v>3435</v>
+        <v>31359</v>
       </c>
       <c r="D105">
-        <v>2940</v>
+        <v>28572</v>
       </c>
       <c r="E105">
         <v>24333</v>
@@ -3414,13 +3408,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>21821</v>
+        <v>183597</v>
       </c>
       <c r="C106">
-        <v>3470</v>
+        <v>31860</v>
       </c>
       <c r="D106">
-        <v>2970</v>
+        <v>29024</v>
       </c>
       <c r="E106">
         <v>24521</v>
@@ -3437,13 +3431,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>22009</v>
+        <v>186475</v>
       </c>
       <c r="C107">
-        <v>3505</v>
+        <v>32361</v>
       </c>
       <c r="D107">
-        <v>3000</v>
+        <v>29475</v>
       </c>
       <c r="E107">
         <v>24708</v>
@@ -3460,13 +3454,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>22197</v>
+        <v>189352</v>
       </c>
       <c r="C108">
-        <v>3540</v>
+        <v>32863</v>
       </c>
       <c r="D108">
-        <v>3030</v>
+        <v>29927</v>
       </c>
       <c r="E108">
         <v>24896</v>
@@ -3483,13 +3477,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>22385</v>
+        <v>192230</v>
       </c>
       <c r="C109">
-        <v>3575</v>
+        <v>33364</v>
       </c>
       <c r="D109">
-        <v>3060</v>
+        <v>30378</v>
       </c>
       <c r="E109">
         <v>25084</v>
@@ -3506,13 +3500,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>22573</v>
+        <v>195108</v>
       </c>
       <c r="C110">
-        <v>3610</v>
+        <v>33865</v>
       </c>
       <c r="D110">
-        <v>3090</v>
+        <v>30830</v>
       </c>
       <c r="E110">
         <v>25272</v>
@@ -3529,13 +3523,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>22761</v>
+        <v>197986</v>
       </c>
       <c r="C111">
-        <v>3645</v>
+        <v>34366</v>
       </c>
       <c r="D111">
-        <v>3120</v>
+        <v>31281</v>
       </c>
       <c r="E111">
         <v>25460</v>
@@ -3552,13 +3546,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>22948</v>
+        <v>200863</v>
       </c>
       <c r="C112">
-        <v>3680</v>
+        <v>34868</v>
       </c>
       <c r="D112">
-        <v>3150</v>
+        <v>31732</v>
       </c>
       <c r="E112">
         <v>25648</v>
@@ -3575,13 +3569,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>23136</v>
+        <v>203741</v>
       </c>
       <c r="C113">
-        <v>3715</v>
+        <v>35369</v>
       </c>
       <c r="D113">
-        <v>3180</v>
+        <v>32184</v>
       </c>
       <c r="E113">
         <v>25836</v>
@@ -3598,13 +3592,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>23324</v>
+        <v>206619</v>
       </c>
       <c r="C114">
-        <v>3750</v>
+        <v>35870</v>
       </c>
       <c r="D114">
-        <v>3210</v>
+        <v>32635</v>
       </c>
       <c r="E114">
         <v>26023</v>
@@ -3621,13 +3615,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>23512</v>
+        <v>209496</v>
       </c>
       <c r="C115">
-        <v>3785</v>
+        <v>36371</v>
       </c>
       <c r="D115">
-        <v>3240</v>
+        <v>33087</v>
       </c>
       <c r="E115">
         <v>26211</v>
@@ -3644,13 +3638,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>23700</v>
+        <v>212374</v>
       </c>
       <c r="C116">
-        <v>3820</v>
+        <v>36872</v>
       </c>
       <c r="D116">
-        <v>3270</v>
+        <v>33538</v>
       </c>
       <c r="E116">
         <v>26399</v>
@@ -3667,13 +3661,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>23888</v>
+        <v>215252</v>
       </c>
       <c r="C117">
-        <v>3855</v>
+        <v>37374</v>
       </c>
       <c r="D117">
-        <v>3300</v>
+        <v>33990</v>
       </c>
       <c r="E117">
         <v>26587</v>
@@ -3690,13 +3684,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>24075</v>
+        <v>218130</v>
       </c>
       <c r="C118">
-        <v>3890</v>
+        <v>37875</v>
       </c>
       <c r="D118">
-        <v>3330</v>
+        <v>34441</v>
       </c>
       <c r="E118">
         <v>26775</v>
@@ -3713,13 +3707,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>24263</v>
+        <v>221007</v>
       </c>
       <c r="C119">
-        <v>3925</v>
+        <v>38376</v>
       </c>
       <c r="D119">
-        <v>3360</v>
+        <v>34892</v>
       </c>
       <c r="E119">
         <v>26963</v>
@@ -3736,13 +3730,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>24451</v>
+        <v>223885</v>
       </c>
       <c r="C120">
-        <v>3960</v>
+        <v>38877</v>
       </c>
       <c r="D120">
-        <v>3390</v>
+        <v>35344</v>
       </c>
       <c r="E120">
         <v>27151</v>
@@ -3759,13 +3753,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>24639</v>
+        <v>226763</v>
       </c>
       <c r="C121">
-        <v>3995</v>
+        <v>39379</v>
       </c>
       <c r="D121">
-        <v>3420</v>
+        <v>35795</v>
       </c>
       <c r="E121">
         <v>27338</v>
@@ -3782,13 +3776,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>24827</v>
+        <v>229640</v>
       </c>
       <c r="C122">
-        <v>4030</v>
+        <v>39880</v>
       </c>
       <c r="D122">
-        <v>3450</v>
+        <v>36247</v>
       </c>
       <c r="E122">
         <v>27526</v>
@@ -3805,13 +3799,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>25015</v>
+        <v>232518</v>
       </c>
       <c r="C123">
-        <v>4065</v>
+        <v>40381</v>
       </c>
       <c r="D123">
-        <v>3480</v>
+        <v>36698</v>
       </c>
       <c r="E123">
         <v>27714</v>
@@ -3828,13 +3822,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>25203</v>
+        <v>235396</v>
       </c>
       <c r="C124">
-        <v>4100</v>
+        <v>40882</v>
       </c>
       <c r="D124">
-        <v>3510</v>
+        <v>37150</v>
       </c>
       <c r="E124">
         <v>27902</v>
@@ -3851,13 +3845,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>25390</v>
+        <v>238273</v>
       </c>
       <c r="C125">
-        <v>4135</v>
+        <v>41384</v>
       </c>
       <c r="D125">
-        <v>3540</v>
+        <v>37601</v>
       </c>
       <c r="E125">
         <v>28090</v>
@@ -3874,13 +3868,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>25578</v>
+        <v>241151</v>
       </c>
       <c r="C126">
-        <v>4170</v>
+        <v>41885</v>
       </c>
       <c r="D126">
-        <v>3570</v>
+        <v>38052</v>
       </c>
       <c r="E126">
         <v>28278</v>
@@ -3897,13 +3891,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>25766</v>
+        <v>244029</v>
       </c>
       <c r="C127">
-        <v>4205</v>
+        <v>42386</v>
       </c>
       <c r="D127">
-        <v>3600</v>
+        <v>38504</v>
       </c>
       <c r="E127">
         <v>28465</v>
@@ -3920,13 +3914,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>25954</v>
+        <v>246907</v>
       </c>
       <c r="C128">
-        <v>4240</v>
+        <v>42887</v>
       </c>
       <c r="D128">
-        <v>3630</v>
+        <v>38955</v>
       </c>
       <c r="E128">
         <v>28653</v>
@@ -3943,13 +3937,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>26142</v>
+        <v>249784</v>
       </c>
       <c r="C129">
-        <v>4275</v>
+        <v>43389</v>
       </c>
       <c r="D129">
-        <v>3660</v>
+        <v>39407</v>
       </c>
       <c r="E129">
         <v>28841</v>
@@ -3966,13 +3960,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>26330</v>
+        <v>252662</v>
       </c>
       <c r="C130">
-        <v>4310</v>
+        <v>43890</v>
       </c>
       <c r="D130">
-        <v>3690</v>
+        <v>39858</v>
       </c>
       <c r="E130">
         <v>29029</v>
@@ -3989,13 +3983,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>26517</v>
+        <v>255540</v>
       </c>
       <c r="C131">
-        <v>4345</v>
+        <v>44391</v>
       </c>
       <c r="D131">
-        <v>3720</v>
+        <v>40310</v>
       </c>
       <c r="E131">
         <v>29217</v>
@@ -4012,13 +4006,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>26705</v>
+        <v>258417</v>
       </c>
       <c r="C132">
-        <v>4380</v>
+        <v>44892</v>
       </c>
       <c r="D132">
-        <v>3750</v>
+        <v>40761</v>
       </c>
       <c r="E132">
         <v>29405</v>
@@ -4035,13 +4029,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>26893</v>
+        <v>261295</v>
       </c>
       <c r="C133">
-        <v>4415</v>
+        <v>45394</v>
       </c>
       <c r="D133">
-        <v>3780</v>
+        <v>41212</v>
       </c>
       <c r="E133">
         <v>29593</v>
@@ -4058,13 +4052,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>27081</v>
+        <v>264173</v>
       </c>
       <c r="C134">
-        <v>4450</v>
+        <v>45895</v>
       </c>
       <c r="D134">
-        <v>3810</v>
+        <v>41664</v>
       </c>
       <c r="E134">
         <v>29780</v>
@@ -4081,13 +4075,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>27269</v>
+        <v>267051</v>
       </c>
       <c r="C135">
-        <v>4485</v>
+        <v>46396</v>
       </c>
       <c r="D135">
-        <v>3840</v>
+        <v>42115</v>
       </c>
       <c r="E135">
         <v>29968</v>
@@ -4104,13 +4098,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>27457</v>
+        <v>269928</v>
       </c>
       <c r="C136">
-        <v>4520</v>
+        <v>46897</v>
       </c>
       <c r="D136">
-        <v>3870</v>
+        <v>42567</v>
       </c>
       <c r="E136">
         <v>30156</v>
@@ -4127,13 +4121,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>27645</v>
+        <v>272806</v>
       </c>
       <c r="C137">
-        <v>4555</v>
+        <v>47399</v>
       </c>
       <c r="D137">
-        <v>3900</v>
+        <v>43018</v>
       </c>
       <c r="E137">
         <v>30344</v>
@@ -4150,13 +4144,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>27832</v>
+        <v>275684</v>
       </c>
       <c r="C138">
-        <v>4590</v>
+        <v>47900</v>
       </c>
       <c r="D138">
-        <v>3930</v>
+        <v>43470</v>
       </c>
       <c r="E138">
         <v>30532</v>
@@ -4173,13 +4167,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>28020</v>
+        <v>278561</v>
       </c>
       <c r="C139">
-        <v>4625</v>
+        <v>48401</v>
       </c>
       <c r="D139">
-        <v>3960</v>
+        <v>43921</v>
       </c>
       <c r="E139">
         <v>30720</v>
@@ -4196,13 +4190,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>28208</v>
+        <v>281439</v>
       </c>
       <c r="C140">
-        <v>4660</v>
+        <v>48902</v>
       </c>
       <c r="D140">
-        <v>3990</v>
+        <v>44372</v>
       </c>
       <c r="E140">
         <v>30907</v>
@@ -4219,13 +4213,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>28396</v>
+        <v>284317</v>
       </c>
       <c r="C141">
-        <v>4695</v>
+        <v>49403</v>
       </c>
       <c r="D141">
-        <v>4020</v>
+        <v>44824</v>
       </c>
       <c r="E141">
         <v>31095</v>
@@ -4242,13 +4236,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>28584</v>
+        <v>287195</v>
       </c>
       <c r="C142">
-        <v>4730</v>
+        <v>49905</v>
       </c>
       <c r="D142">
-        <v>4050</v>
+        <v>45275</v>
       </c>
       <c r="E142">
         <v>31283</v>
@@ -4265,13 +4259,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>28772</v>
+        <v>290072</v>
       </c>
       <c r="C143">
-        <v>4765</v>
+        <v>50406</v>
       </c>
       <c r="D143">
-        <v>4080</v>
+        <v>45727</v>
       </c>
       <c r="E143">
         <v>31471</v>
@@ -4288,13 +4282,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>28959</v>
+        <v>292950</v>
       </c>
       <c r="C144">
-        <v>4800</v>
+        <v>50907</v>
       </c>
       <c r="D144">
-        <v>4110</v>
+        <v>46178</v>
       </c>
       <c r="E144">
         <v>31659</v>
@@ -4311,13 +4305,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>29147</v>
+        <v>295828</v>
       </c>
       <c r="C145">
-        <v>4835</v>
+        <v>51408</v>
       </c>
       <c r="D145">
-        <v>4140</v>
+        <v>46629</v>
       </c>
       <c r="E145">
         <v>31847</v>
@@ -4334,13 +4328,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>29335</v>
+        <v>298705</v>
       </c>
       <c r="C146">
-        <v>4870</v>
+        <v>51910</v>
       </c>
       <c r="D146">
-        <v>4170</v>
+        <v>47081</v>
       </c>
       <c r="E146">
         <v>32035</v>
@@ -4357,13 +4351,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>29523</v>
+        <v>301583</v>
       </c>
       <c r="C147">
-        <v>4905</v>
+        <v>52411</v>
       </c>
       <c r="D147">
-        <v>4200</v>
+        <v>47532</v>
       </c>
       <c r="E147">
         <v>32222</v>
@@ -4380,13 +4374,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>29711</v>
+        <v>304461</v>
       </c>
       <c r="C148">
-        <v>4940</v>
+        <v>52912</v>
       </c>
       <c r="D148">
-        <v>4230</v>
+        <v>47984</v>
       </c>
       <c r="E148">
         <v>32410</v>
@@ -4403,13 +4397,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>29899</v>
+        <v>307339</v>
       </c>
       <c r="C149">
-        <v>4975</v>
+        <v>53413</v>
       </c>
       <c r="D149">
-        <v>4260</v>
+        <v>48435</v>
       </c>
       <c r="E149">
         <v>32598</v>
@@ -4426,13 +4420,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>30087</v>
+        <v>310216</v>
       </c>
       <c r="C150">
-        <v>5010</v>
+        <v>53915</v>
       </c>
       <c r="D150">
-        <v>4290</v>
+        <v>48887</v>
       </c>
       <c r="E150">
         <v>32786</v>
@@ -4449,13 +4443,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>30274</v>
+        <v>313094</v>
       </c>
       <c r="C151">
-        <v>5045</v>
+        <v>54416</v>
       </c>
       <c r="D151">
-        <v>4320</v>
+        <v>49338</v>
       </c>
       <c r="E151">
         <v>32974</v>
@@ -4472,13 +4466,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>30462</v>
+        <v>315972</v>
       </c>
       <c r="C152">
-        <v>5080</v>
+        <v>54917</v>
       </c>
       <c r="D152">
-        <v>4350</v>
+        <v>49789</v>
       </c>
       <c r="E152">
         <v>33162</v>
@@ -4495,13 +4489,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>30650</v>
+        <v>318849</v>
       </c>
       <c r="C153">
-        <v>5115</v>
+        <v>55418</v>
       </c>
       <c r="D153">
-        <v>4380</v>
+        <v>50241</v>
       </c>
       <c r="E153">
         <v>33349</v>
@@ -4518,13 +4512,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>30838</v>
+        <v>321727</v>
       </c>
       <c r="C154">
-        <v>5150</v>
+        <v>55920</v>
       </c>
       <c r="D154">
-        <v>4410</v>
+        <v>50692</v>
       </c>
       <c r="E154">
         <v>33537</v>
@@ -4541,13 +4535,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>31026</v>
+        <v>324605</v>
       </c>
       <c r="C155">
-        <v>5185</v>
+        <v>56421</v>
       </c>
       <c r="D155">
-        <v>4440</v>
+        <v>51144</v>
       </c>
       <c r="E155">
         <v>33725</v>
@@ -4564,13 +4558,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>31214</v>
+        <v>327483</v>
       </c>
       <c r="C156">
-        <v>5220</v>
+        <v>56922</v>
       </c>
       <c r="D156">
-        <v>4470</v>
+        <v>51595</v>
       </c>
       <c r="E156">
         <v>33913</v>
@@ -4587,13 +4581,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>31402</v>
+        <v>330360</v>
       </c>
       <c r="C157">
-        <v>5255</v>
+        <v>57423</v>
       </c>
       <c r="D157">
-        <v>4500</v>
+        <v>52047</v>
       </c>
       <c r="E157">
         <v>34101</v>
@@ -4610,13 +4604,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>31589</v>
+        <v>333238</v>
       </c>
       <c r="C158">
-        <v>5290</v>
+        <v>57925</v>
       </c>
       <c r="D158">
-        <v>4530</v>
+        <v>52498</v>
       </c>
       <c r="E158">
         <v>34289</v>
@@ -4633,13 +4627,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>31777</v>
+        <v>336116</v>
       </c>
       <c r="C159">
-        <v>5325</v>
+        <v>58426</v>
       </c>
       <c r="D159">
-        <v>4560</v>
+        <v>52949</v>
       </c>
       <c r="E159">
         <v>34477</v>
@@ -4656,13 +4650,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>31965</v>
+        <v>338993</v>
       </c>
       <c r="C160">
-        <v>5360</v>
+        <v>58927</v>
       </c>
       <c r="D160">
-        <v>4590</v>
+        <v>53401</v>
       </c>
       <c r="E160">
         <v>34664</v>
@@ -4679,13 +4673,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>32153</v>
+        <v>341871</v>
       </c>
       <c r="C161">
-        <v>5395</v>
+        <v>59428</v>
       </c>
       <c r="D161">
-        <v>4620</v>
+        <v>53852</v>
       </c>
       <c r="E161">
         <v>34852</v>
@@ -4702,13 +4696,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>32153</v>
+        <v>344749</v>
       </c>
       <c r="C162">
-        <v>5430</v>
+        <v>59930</v>
       </c>
       <c r="D162">
-        <v>4650</v>
+        <v>54304</v>
       </c>
       <c r="E162">
         <v>35040</v>
@@ -4725,13 +4719,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>32153</v>
+        <v>347626</v>
       </c>
       <c r="C163">
-        <v>5465</v>
+        <v>60431</v>
       </c>
       <c r="D163">
-        <v>4680</v>
+        <v>54755</v>
       </c>
       <c r="E163">
         <v>35228</v>
@@ -4748,13 +4742,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>32153</v>
+        <v>350504</v>
       </c>
       <c r="C164">
-        <v>5500</v>
+        <v>60932</v>
       </c>
       <c r="D164">
-        <v>4710</v>
+        <v>55207</v>
       </c>
       <c r="E164">
         <v>35416</v>
@@ -4771,13 +4765,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>32153</v>
+        <v>353382</v>
       </c>
       <c r="C165">
-        <v>5535</v>
+        <v>61433</v>
       </c>
       <c r="D165">
-        <v>4740</v>
+        <v>55658</v>
       </c>
       <c r="E165">
         <v>35604</v>
@@ -4794,13 +4788,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>32153</v>
+        <v>356260</v>
       </c>
       <c r="C166">
-        <v>5570</v>
+        <v>61934</v>
       </c>
       <c r="D166">
-        <v>4770</v>
+        <v>56109</v>
       </c>
       <c r="E166">
         <v>35792</v>
@@ -4817,13 +4811,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>32153</v>
+        <v>359137</v>
       </c>
       <c r="C167">
-        <v>5605</v>
+        <v>62436</v>
       </c>
       <c r="D167">
-        <v>4800</v>
+        <v>56561</v>
       </c>
       <c r="E167">
         <v>35979</v>
@@ -4840,13 +4834,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>32153</v>
+        <v>362015</v>
       </c>
       <c r="C168">
-        <v>5640</v>
+        <v>62937</v>
       </c>
       <c r="D168">
-        <v>4830</v>
+        <v>57012</v>
       </c>
       <c r="E168">
         <v>36167</v>
@@ -4863,13 +4857,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>32153</v>
+        <v>364893</v>
       </c>
       <c r="C169">
-        <v>5675</v>
+        <v>63438</v>
       </c>
       <c r="D169">
-        <v>4860</v>
+        <v>57464</v>
       </c>
       <c r="E169">
         <v>36355</v>
@@ -4886,13 +4880,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>32153</v>
+        <v>367770</v>
       </c>
       <c r="C170">
-        <v>5710</v>
+        <v>63939</v>
       </c>
       <c r="D170">
-        <v>4890</v>
+        <v>57915</v>
       </c>
       <c r="E170">
         <v>36543</v>
@@ -4909,13 +4903,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>32153</v>
+        <v>370648</v>
       </c>
       <c r="C171">
-        <v>5745</v>
+        <v>64441</v>
       </c>
       <c r="D171">
-        <v>4920</v>
+        <v>58367</v>
       </c>
       <c r="E171">
         <v>36731</v>
@@ -4932,13 +4926,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>32153</v>
+        <v>373526</v>
       </c>
       <c r="C172">
-        <v>5780</v>
+        <v>64942</v>
       </c>
       <c r="D172">
-        <v>4950</v>
+        <v>58818</v>
       </c>
       <c r="E172">
         <v>36919</v>
@@ -4955,13 +4949,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>32153</v>
+        <v>376404</v>
       </c>
       <c r="C173">
-        <v>5815</v>
+        <v>65443</v>
       </c>
       <c r="D173">
-        <v>4980</v>
+        <v>59269</v>
       </c>
       <c r="E173">
         <v>37106</v>
@@ -4978,13 +4972,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>32153</v>
+        <v>379281</v>
       </c>
       <c r="C174">
-        <v>5850</v>
+        <v>65944</v>
       </c>
       <c r="D174">
-        <v>5010</v>
+        <v>59721</v>
       </c>
       <c r="E174">
         <v>37294</v>
@@ -5001,13 +4995,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>32153</v>
+        <v>382159</v>
       </c>
       <c r="C175">
-        <v>5885</v>
+        <v>66446</v>
       </c>
       <c r="D175">
-        <v>5040</v>
+        <v>60172</v>
       </c>
       <c r="E175">
         <v>37482</v>
@@ -5024,13 +5018,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>32153</v>
+        <v>385037</v>
       </c>
       <c r="C176">
-        <v>5920</v>
+        <v>66947</v>
       </c>
       <c r="D176">
-        <v>5070</v>
+        <v>60624</v>
       </c>
       <c r="E176">
         <v>37670</v>
@@ -5047,13 +5041,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>32153</v>
+        <v>387914</v>
       </c>
       <c r="C177">
-        <v>5955</v>
+        <v>67448</v>
       </c>
       <c r="D177">
-        <v>5100</v>
+        <v>61075</v>
       </c>
       <c r="E177">
         <v>37858</v>
@@ -5070,13 +5064,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>32153</v>
+        <v>390792</v>
       </c>
       <c r="C178">
-        <v>5990</v>
+        <v>67949</v>
       </c>
       <c r="D178">
-        <v>5130</v>
+        <v>61527</v>
       </c>
       <c r="E178">
         <v>38046</v>
@@ -5093,13 +5087,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>32153</v>
+        <v>393670</v>
       </c>
       <c r="C179">
-        <v>6025</v>
+        <v>68451</v>
       </c>
       <c r="D179">
-        <v>5160</v>
+        <v>61978</v>
       </c>
       <c r="E179">
         <v>38234</v>
@@ -5116,13 +5110,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>32153</v>
+        <v>396548</v>
       </c>
       <c r="C180">
-        <v>6060</v>
+        <v>68952</v>
       </c>
       <c r="D180">
-        <v>5190</v>
+        <v>62429</v>
       </c>
       <c r="E180">
         <v>38421</v>
@@ -5139,13 +5133,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>32153</v>
+        <v>399425</v>
       </c>
       <c r="C181">
-        <v>6095</v>
+        <v>69453</v>
       </c>
       <c r="D181">
-        <v>5220</v>
+        <v>62881</v>
       </c>
       <c r="E181">
         <v>38609</v>
@@ -5162,13 +5156,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>32153</v>
+        <v>402303</v>
       </c>
       <c r="C182">
-        <v>6130</v>
+        <v>69954</v>
       </c>
       <c r="D182">
-        <v>5250</v>
+        <v>63332</v>
       </c>
       <c r="E182">
         <v>38797</v>
@@ -5185,13 +5179,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>32153</v>
+        <v>405181</v>
       </c>
       <c r="C183">
-        <v>6165</v>
+        <v>70456</v>
       </c>
       <c r="D183">
-        <v>5280</v>
+        <v>63784</v>
       </c>
       <c r="E183">
         <v>38985</v>
@@ -5208,13 +5202,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>32153</v>
+        <v>408058</v>
       </c>
       <c r="C184">
-        <v>6200</v>
+        <v>70957</v>
       </c>
       <c r="D184">
-        <v>5310</v>
+        <v>64235</v>
       </c>
       <c r="E184">
         <v>39173</v>
@@ -5231,13 +5225,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>32153</v>
+        <v>410936</v>
       </c>
       <c r="C185">
-        <v>6235</v>
+        <v>71458</v>
       </c>
       <c r="D185">
-        <v>5340</v>
+        <v>64687</v>
       </c>
       <c r="E185">
         <v>39361</v>
@@ -5254,13 +5248,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>32153</v>
+        <v>413814</v>
       </c>
       <c r="C186">
-        <v>6270</v>
+        <v>71959</v>
       </c>
       <c r="D186">
-        <v>5370</v>
+        <v>65138</v>
       </c>
       <c r="E186">
         <v>39548</v>
@@ -5277,13 +5271,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>32153</v>
+        <v>416692</v>
       </c>
       <c r="C187">
-        <v>6305</v>
+        <v>72461</v>
       </c>
       <c r="D187">
-        <v>5400</v>
+        <v>65589</v>
       </c>
       <c r="E187">
         <v>39736</v>
@@ -5300,13 +5294,13 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>32153</v>
+        <v>419569</v>
       </c>
       <c r="C188">
-        <v>6340</v>
+        <v>72962</v>
       </c>
       <c r="D188">
-        <v>5430</v>
+        <v>66041</v>
       </c>
       <c r="E188">
         <v>39924</v>
@@ -5323,13 +5317,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>32153</v>
+        <v>422447</v>
       </c>
       <c r="C189">
-        <v>6375</v>
+        <v>73463</v>
       </c>
       <c r="D189">
-        <v>5460</v>
+        <v>66492</v>
       </c>
       <c r="E189">
         <v>40112</v>
@@ -5346,13 +5340,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>32153</v>
+        <v>425325</v>
       </c>
       <c r="C190">
-        <v>6410</v>
+        <v>73964</v>
       </c>
       <c r="D190">
-        <v>5490</v>
+        <v>66944</v>
       </c>
       <c r="E190">
         <v>40300</v>
@@ -5369,13 +5363,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>32153</v>
+        <v>428202</v>
       </c>
       <c r="C191">
-        <v>6445</v>
+        <v>74465</v>
       </c>
       <c r="D191">
-        <v>5520</v>
+        <v>67395</v>
       </c>
       <c r="E191">
         <v>40488</v>
@@ -5392,13 +5386,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>32153</v>
+        <v>431080</v>
       </c>
       <c r="C192">
-        <v>6480</v>
+        <v>74967</v>
       </c>
       <c r="D192">
-        <v>5550</v>
+        <v>67847</v>
       </c>
       <c r="E192">
         <v>40676</v>
@@ -5415,13 +5409,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>32153</v>
+        <v>433958</v>
       </c>
       <c r="C193">
-        <v>6515</v>
+        <v>75468</v>
       </c>
       <c r="D193">
-        <v>5580</v>
+        <v>68298</v>
       </c>
       <c r="E193">
         <v>40863</v>
@@ -5438,13 +5432,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>32153</v>
+        <v>436836</v>
       </c>
       <c r="C194">
-        <v>6550</v>
+        <v>75969</v>
       </c>
       <c r="D194">
-        <v>5610</v>
+        <v>68749</v>
       </c>
       <c r="E194">
         <v>41051</v>
@@ -5461,13 +5455,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>32153</v>
+        <v>439713</v>
       </c>
       <c r="C195">
-        <v>6585</v>
+        <v>76470</v>
       </c>
       <c r="D195">
-        <v>5640</v>
+        <v>69201</v>
       </c>
       <c r="E195">
         <v>41239</v>
@@ -5484,13 +5478,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>32153</v>
+        <v>442591</v>
       </c>
       <c r="C196">
-        <v>6620</v>
+        <v>76972</v>
       </c>
       <c r="D196">
-        <v>5670</v>
+        <v>69652</v>
       </c>
       <c r="E196">
         <v>41427</v>
@@ -5507,13 +5501,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>32153</v>
+        <v>445469</v>
       </c>
       <c r="C197">
-        <v>6655</v>
+        <v>77473</v>
       </c>
       <c r="D197">
-        <v>5700</v>
+        <v>70104</v>
       </c>
       <c r="E197">
         <v>41615</v>
@@ -5530,13 +5524,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>32153</v>
+        <v>448346</v>
       </c>
       <c r="C198">
-        <v>6690</v>
+        <v>77974</v>
       </c>
       <c r="D198">
-        <v>5730</v>
+        <v>70555</v>
       </c>
       <c r="E198">
         <v>41803</v>
@@ -5553,13 +5547,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>32153</v>
+        <v>451224</v>
       </c>
       <c r="C199">
-        <v>6725</v>
+        <v>78475</v>
       </c>
       <c r="D199">
-        <v>5760</v>
+        <v>71007</v>
       </c>
       <c r="E199">
         <v>41990</v>
@@ -5576,13 +5570,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>32153</v>
+        <v>454102</v>
       </c>
       <c r="C200">
-        <v>6760</v>
+        <v>78977</v>
       </c>
       <c r="D200">
-        <v>5790</v>
+        <v>71458</v>
       </c>
       <c r="E200">
         <v>42178</v>
@@ -5599,13 +5593,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>32153</v>
+        <v>456979</v>
       </c>
       <c r="C201">
-        <v>6795</v>
+        <v>79478</v>
       </c>
       <c r="D201">
-        <v>5820</v>
+        <v>71909</v>
       </c>
       <c r="E201">
         <v>42366</v>
@@ -5622,13 +5616,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>32153</v>
+        <v>459857</v>
       </c>
       <c r="C202">
-        <v>6830</v>
+        <v>79979</v>
       </c>
       <c r="D202">
-        <v>5850</v>
+        <v>72361</v>
       </c>
       <c r="E202">
         <v>42554</v>
@@ -5645,13 +5639,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>32153</v>
+        <v>462735</v>
       </c>
       <c r="C203">
-        <v>6865</v>
+        <v>80480</v>
       </c>
       <c r="D203">
-        <v>5880</v>
+        <v>72812</v>
       </c>
       <c r="E203">
         <v>42742</v>
@@ -5668,13 +5662,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>32153</v>
+        <v>465613</v>
       </c>
       <c r="C204">
-        <v>6900</v>
+        <v>80982</v>
       </c>
       <c r="D204">
-        <v>5910</v>
+        <v>73264</v>
       </c>
       <c r="E204">
         <v>42930</v>
@@ -5691,13 +5685,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>32153</v>
+        <v>468490</v>
       </c>
       <c r="C205">
-        <v>6935</v>
+        <v>81483</v>
       </c>
       <c r="D205">
-        <v>5940</v>
+        <v>73715</v>
       </c>
       <c r="E205">
         <v>43118</v>
@@ -5714,13 +5708,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>32153</v>
+        <v>471368</v>
       </c>
       <c r="C206">
-        <v>6970</v>
+        <v>81984</v>
       </c>
       <c r="D206">
-        <v>5970</v>
+        <v>74167</v>
       </c>
       <c r="E206">
         <v>43305</v>
@@ -5737,13 +5731,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>32153</v>
+        <v>474246</v>
       </c>
       <c r="C207">
-        <v>7005</v>
+        <v>82485</v>
       </c>
       <c r="D207">
-        <v>6000</v>
+        <v>74618</v>
       </c>
       <c r="E207">
         <v>43493</v>
@@ -5760,13 +5754,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>32153</v>
+        <v>477123</v>
       </c>
       <c r="C208">
-        <v>7040</v>
+        <v>82987</v>
       </c>
       <c r="D208">
-        <v>6030</v>
+        <v>75069</v>
       </c>
       <c r="E208">
         <v>43681</v>
@@ -5783,13 +5777,13 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>32153</v>
+        <v>480001</v>
       </c>
       <c r="C209">
-        <v>7075</v>
+        <v>83488</v>
       </c>
       <c r="D209">
-        <v>6060</v>
+        <v>75521</v>
       </c>
       <c r="E209">
         <v>43869</v>
@@ -5806,13 +5800,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>32153</v>
+        <v>482879</v>
       </c>
       <c r="C210">
-        <v>7110</v>
+        <v>83989</v>
       </c>
       <c r="D210">
-        <v>6090</v>
+        <v>75972</v>
       </c>
       <c r="E210">
         <v>44057</v>
@@ -5829,13 +5823,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>32153</v>
+        <v>485757</v>
       </c>
       <c r="C211">
-        <v>7145</v>
+        <v>84490</v>
       </c>
       <c r="D211">
-        <v>6120</v>
+        <v>76424</v>
       </c>
       <c r="E211">
         <v>44245</v>
@@ -5852,13 +5846,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>32153</v>
+        <v>488634</v>
       </c>
       <c r="C212">
-        <v>7180</v>
+        <v>84992</v>
       </c>
       <c r="D212">
-        <v>6150</v>
+        <v>76875</v>
       </c>
       <c r="E212">
         <v>44433</v>
@@ -5875,13 +5869,13 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>32153</v>
+        <v>491512</v>
       </c>
       <c r="C213">
-        <v>7215</v>
+        <v>85493</v>
       </c>
       <c r="D213">
-        <v>6180</v>
+        <v>77327</v>
       </c>
       <c r="E213">
         <v>44620</v>
@@ -5898,13 +5892,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>32153</v>
+        <v>494390</v>
       </c>
       <c r="C214">
-        <v>7250</v>
+        <v>85994</v>
       </c>
       <c r="D214">
-        <v>6210</v>
+        <v>77778</v>
       </c>
       <c r="E214">
         <v>44808</v>
@@ -5921,13 +5915,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>32153</v>
+        <v>497267</v>
       </c>
       <c r="C215">
-        <v>7285</v>
+        <v>86495</v>
       </c>
       <c r="D215">
-        <v>6240</v>
+        <v>78229</v>
       </c>
       <c r="E215">
         <v>44996</v>
@@ -5944,13 +5938,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>32153</v>
+        <v>500145</v>
       </c>
       <c r="C216">
-        <v>7320</v>
+        <v>86996</v>
       </c>
       <c r="D216">
-        <v>6270</v>
+        <v>78681</v>
       </c>
       <c r="E216">
         <v>45184</v>
@@ -5967,13 +5961,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>32153</v>
+        <v>503023</v>
       </c>
       <c r="C217">
-        <v>7355</v>
+        <v>87498</v>
       </c>
       <c r="D217">
-        <v>6300</v>
+        <v>79132</v>
       </c>
       <c r="E217">
         <v>45372</v>
@@ -5990,13 +5984,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>32153</v>
+        <v>505901</v>
       </c>
       <c r="C218">
-        <v>7390</v>
+        <v>87999</v>
       </c>
       <c r="D218">
-        <v>6330</v>
+        <v>79584</v>
       </c>
       <c r="E218">
         <v>45560</v>
@@ -6013,13 +6007,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>32153</v>
+        <v>508778</v>
       </c>
       <c r="C219">
-        <v>7425</v>
+        <v>88500</v>
       </c>
       <c r="D219">
-        <v>6360</v>
+        <v>80035</v>
       </c>
       <c r="E219">
         <v>45747</v>
@@ -6036,13 +6030,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>32153</v>
+        <v>511656</v>
       </c>
       <c r="C220">
-        <v>7460</v>
+        <v>89001</v>
       </c>
       <c r="D220">
-        <v>6390</v>
+        <v>80487</v>
       </c>
       <c r="E220">
         <v>45935</v>
@@ -6059,13 +6053,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>32153</v>
+        <v>514534</v>
       </c>
       <c r="C221">
-        <v>7495</v>
+        <v>89503</v>
       </c>
       <c r="D221">
-        <v>6420</v>
+        <v>80938</v>
       </c>
       <c r="E221">
         <v>46123</v>
@@ -6082,13 +6076,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>32153</v>
+        <v>517411</v>
       </c>
       <c r="C222">
-        <v>7530</v>
+        <v>90004</v>
       </c>
       <c r="D222">
-        <v>6450</v>
+        <v>81389</v>
       </c>
       <c r="E222">
         <v>46311</v>
@@ -6105,13 +6099,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>32153</v>
+        <v>520289</v>
       </c>
       <c r="C223">
-        <v>7565</v>
+        <v>90505</v>
       </c>
       <c r="D223">
-        <v>6480</v>
+        <v>81841</v>
       </c>
       <c r="E223">
         <v>46499</v>
@@ -6128,13 +6122,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>32153</v>
+        <v>523167</v>
       </c>
       <c r="C224">
-        <v>7600</v>
+        <v>91006</v>
       </c>
       <c r="D224">
-        <v>6510</v>
+        <v>82292</v>
       </c>
       <c r="E224">
         <v>46687</v>
@@ -6151,13 +6145,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>32153</v>
+        <v>526045</v>
       </c>
       <c r="C225">
-        <v>7635</v>
+        <v>91508</v>
       </c>
       <c r="D225">
-        <v>6540</v>
+        <v>82744</v>
       </c>
       <c r="E225">
         <v>46875</v>
@@ -6174,13 +6168,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>32153</v>
+        <v>528922</v>
       </c>
       <c r="C226">
-        <v>7670</v>
+        <v>92009</v>
       </c>
       <c r="D226">
-        <v>6570</v>
+        <v>83195</v>
       </c>
       <c r="E226">
         <v>47062</v>
@@ -6197,13 +6191,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>32153</v>
+        <v>531800</v>
       </c>
       <c r="C227">
-        <v>7705</v>
+        <v>92510</v>
       </c>
       <c r="D227">
-        <v>6600</v>
+        <v>83647</v>
       </c>
       <c r="E227">
         <v>47250</v>
@@ -6220,13 +6214,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>32153</v>
+        <v>534678</v>
       </c>
       <c r="C228">
-        <v>7740</v>
+        <v>93011</v>
       </c>
       <c r="D228">
-        <v>6630</v>
+        <v>84098</v>
       </c>
       <c r="E228">
         <v>47438</v>
@@ -6243,13 +6237,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>32153</v>
+        <v>537555</v>
       </c>
       <c r="C229">
-        <v>7775</v>
+        <v>93513</v>
       </c>
       <c r="D229">
-        <v>6660</v>
+        <v>84549</v>
       </c>
       <c r="E229">
         <v>47626</v>
@@ -6266,13 +6260,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>32153</v>
+        <v>540433</v>
       </c>
       <c r="C230">
-        <v>7810</v>
+        <v>94014</v>
       </c>
       <c r="D230">
-        <v>6690</v>
+        <v>85001</v>
       </c>
       <c r="E230">
         <v>47814</v>
@@ -6289,13 +6283,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>32153</v>
+        <v>543311</v>
       </c>
       <c r="C231">
-        <v>7845</v>
+        <v>94515</v>
       </c>
       <c r="D231">
-        <v>6720</v>
+        <v>85452</v>
       </c>
       <c r="E231">
         <v>48002</v>
@@ -6312,13 +6306,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>32153</v>
+        <v>546188</v>
       </c>
       <c r="C232">
-        <v>7880</v>
+        <v>95016</v>
       </c>
       <c r="D232">
-        <v>6750</v>
+        <v>85904</v>
       </c>
       <c r="E232">
         <v>48189</v>
@@ -6335,13 +6329,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>32153</v>
+        <v>549066</v>
       </c>
       <c r="C233">
-        <v>7915</v>
+        <v>95518</v>
       </c>
       <c r="D233">
-        <v>6780</v>
+        <v>86355</v>
       </c>
       <c r="E233">
         <v>48377</v>
@@ -6358,13 +6352,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>32153</v>
+        <v>551944</v>
       </c>
       <c r="C234">
-        <v>7950</v>
+        <v>96019</v>
       </c>
       <c r="D234">
-        <v>6810</v>
+        <v>86806</v>
       </c>
       <c r="E234">
         <v>48565</v>
@@ -6381,13 +6375,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>32153</v>
+        <v>554822</v>
       </c>
       <c r="C235">
-        <v>7985</v>
+        <v>96520</v>
       </c>
       <c r="D235">
-        <v>6840</v>
+        <v>87258</v>
       </c>
       <c r="E235">
         <v>48753</v>
@@ -6404,13 +6398,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>32153</v>
+        <v>557699</v>
       </c>
       <c r="C236">
-        <v>8020</v>
+        <v>97021</v>
       </c>
       <c r="D236">
-        <v>6870</v>
+        <v>87709</v>
       </c>
       <c r="E236">
         <v>48941</v>
@@ -6427,13 +6421,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>32153</v>
+        <v>560577</v>
       </c>
       <c r="C237">
-        <v>8055</v>
+        <v>97523</v>
       </c>
       <c r="D237">
-        <v>6900</v>
+        <v>88161</v>
       </c>
       <c r="E237">
         <v>49129</v>
@@ -6450,13 +6444,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>32153</v>
+        <v>563455</v>
       </c>
       <c r="C238">
-        <v>8090</v>
+        <v>98024</v>
       </c>
       <c r="D238">
-        <v>6930</v>
+        <v>88612</v>
       </c>
       <c r="E238">
         <v>49317</v>
@@ -6473,13 +6467,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>32153</v>
+        <v>566332</v>
       </c>
       <c r="C239">
-        <v>8125</v>
+        <v>98525</v>
       </c>
       <c r="D239">
-        <v>6960</v>
+        <v>89064</v>
       </c>
       <c r="E239">
         <v>49504</v>
@@ -6496,13 +6490,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>32153</v>
+        <v>569210</v>
       </c>
       <c r="C240">
-        <v>8160</v>
+        <v>99026</v>
       </c>
       <c r="D240">
-        <v>6990</v>
+        <v>89515</v>
       </c>
       <c r="E240">
         <v>49692</v>
@@ -6519,13 +6513,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>32153</v>
+        <v>572088</v>
       </c>
       <c r="C241">
-        <v>8195</v>
+        <v>99527</v>
       </c>
       <c r="D241">
-        <v>7020</v>
+        <v>89966</v>
       </c>
       <c r="E241">
         <v>49880</v>
@@ -6542,13 +6536,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>32153</v>
+        <v>574966</v>
       </c>
       <c r="C242">
-        <v>8230</v>
+        <v>100029</v>
       </c>
       <c r="D242">
-        <v>7050</v>
+        <v>90418</v>
       </c>
       <c r="E242">
         <v>50068</v>
@@ -6565,13 +6559,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>32153</v>
+        <v>577843</v>
       </c>
       <c r="C243">
-        <v>8265</v>
+        <v>100530</v>
       </c>
       <c r="D243">
-        <v>7080</v>
+        <v>90869</v>
       </c>
       <c r="E243">
         <v>50256</v>
@@ -6588,13 +6582,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>32153</v>
+        <v>580721</v>
       </c>
       <c r="C244">
-        <v>8300</v>
+        <v>101031</v>
       </c>
       <c r="D244">
-        <v>7110</v>
+        <v>91321</v>
       </c>
       <c r="E244">
         <v>50444</v>
@@ -6611,13 +6605,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>32153</v>
+        <v>583599</v>
       </c>
       <c r="C245">
-        <v>8335</v>
+        <v>101532</v>
       </c>
       <c r="D245">
-        <v>7140</v>
+        <v>91772</v>
       </c>
       <c r="E245">
         <v>50631</v>
@@ -6634,13 +6628,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>32153</v>
+        <v>586476</v>
       </c>
       <c r="C246">
-        <v>8370</v>
+        <v>102034</v>
       </c>
       <c r="D246">
-        <v>7170</v>
+        <v>92224</v>
       </c>
       <c r="E246">
         <v>50819</v>
@@ -6657,13 +6651,13 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>32153</v>
+        <v>589354</v>
       </c>
       <c r="C247">
-        <v>8405</v>
+        <v>102535</v>
       </c>
       <c r="D247">
-        <v>7200</v>
+        <v>92675</v>
       </c>
       <c r="E247">
         <v>51007</v>
@@ -6680,13 +6674,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>32153</v>
+        <v>592232</v>
       </c>
       <c r="C248">
-        <v>8440</v>
+        <v>103036</v>
       </c>
       <c r="D248">
-        <v>7230</v>
+        <v>93126</v>
       </c>
       <c r="E248">
         <v>51195</v>
@@ -6703,13 +6697,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>32153</v>
+        <v>595110</v>
       </c>
       <c r="C249">
-        <v>8475</v>
+        <v>103537</v>
       </c>
       <c r="D249">
-        <v>7260</v>
+        <v>93578</v>
       </c>
       <c r="E249">
         <v>51383</v>
@@ -6726,13 +6720,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>32153</v>
+        <v>597987</v>
       </c>
       <c r="C250">
-        <v>8510</v>
+        <v>104039</v>
       </c>
       <c r="D250">
-        <v>7290</v>
+        <v>94029</v>
       </c>
       <c r="E250">
         <v>51571</v>
@@ -6749,13 +6743,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>32153</v>
+        <v>600865</v>
       </c>
       <c r="C251">
-        <v>8545</v>
+        <v>104540</v>
       </c>
       <c r="D251">
-        <v>7320</v>
+        <v>94481</v>
       </c>
       <c r="E251">
         <v>51759</v>
@@ -6772,13 +6766,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>32153</v>
+        <v>603743</v>
       </c>
       <c r="C252">
-        <v>8580</v>
+        <v>105041</v>
       </c>
       <c r="D252">
-        <v>7350</v>
+        <v>94932</v>
       </c>
       <c r="E252">
         <v>51946</v>
@@ -6795,13 +6789,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>32153</v>
+        <v>606620</v>
       </c>
       <c r="C253">
-        <v>8615</v>
+        <v>105542</v>
       </c>
       <c r="D253">
-        <v>7380</v>
+        <v>95384</v>
       </c>
       <c r="E253">
         <v>52134</v>
@@ -6818,13 +6812,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>32153</v>
+        <v>609498</v>
       </c>
       <c r="C254">
-        <v>8650</v>
+        <v>106044</v>
       </c>
       <c r="D254">
-        <v>7410</v>
+        <v>95835</v>
       </c>
       <c r="E254">
         <v>52322</v>
@@ -6841,13 +6835,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>32153</v>
+        <v>612376</v>
       </c>
       <c r="C255">
-        <v>8685</v>
+        <v>106545</v>
       </c>
       <c r="D255">
-        <v>7440</v>
+        <v>96286</v>
       </c>
       <c r="E255">
         <v>52510</v>
@@ -6864,13 +6858,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>32153</v>
+        <v>615254</v>
       </c>
       <c r="C256">
-        <v>8720</v>
+        <v>107046</v>
       </c>
       <c r="D256">
-        <v>7470</v>
+        <v>96738</v>
       </c>
       <c r="E256">
         <v>52698</v>
@@ -6887,13 +6881,13 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>32153</v>
+        <v>618131</v>
       </c>
       <c r="C257">
-        <v>8755</v>
+        <v>107547</v>
       </c>
       <c r="D257">
-        <v>7500</v>
+        <v>97189</v>
       </c>
       <c r="E257">
         <v>52886</v>
@@ -6910,13 +6904,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>32153</v>
+        <v>621009</v>
       </c>
       <c r="C258">
-        <v>8790</v>
+        <v>108049</v>
       </c>
       <c r="D258">
-        <v>7530</v>
+        <v>97641</v>
       </c>
       <c r="E258">
         <v>53074</v>
@@ -6933,13 +6927,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>32153</v>
+        <v>623887</v>
       </c>
       <c r="C259">
-        <v>8825</v>
+        <v>108550</v>
       </c>
       <c r="D259">
-        <v>7560</v>
+        <v>98092</v>
       </c>
       <c r="E259">
         <v>53261</v>
@@ -6956,13 +6950,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>32153</v>
+        <v>626764</v>
       </c>
       <c r="C260">
-        <v>8860</v>
+        <v>109051</v>
       </c>
       <c r="D260">
-        <v>7590</v>
+        <v>98544</v>
       </c>
       <c r="E260">
         <v>53449</v>
@@ -6979,13 +6973,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>32153</v>
+        <v>629642</v>
       </c>
       <c r="C261">
-        <v>8895</v>
+        <v>109552</v>
       </c>
       <c r="D261">
-        <v>7620</v>
+        <v>98995</v>
       </c>
       <c r="E261">
         <v>53637</v>
@@ -7002,13 +6996,13 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>32153</v>
+        <v>632520</v>
       </c>
       <c r="C262">
-        <v>8930</v>
+        <v>110054</v>
       </c>
       <c r="D262">
-        <v>7650</v>
+        <v>99446</v>
       </c>
       <c r="E262">
         <v>53825</v>
@@ -7025,13 +7019,13 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>32153</v>
+        <v>635398</v>
       </c>
       <c r="C263">
-        <v>8965</v>
+        <v>110555</v>
       </c>
       <c r="D263">
-        <v>7680</v>
+        <v>99898</v>
       </c>
       <c r="E263">
         <v>54013</v>
@@ -7048,13 +7042,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>32153</v>
+        <v>638275</v>
       </c>
       <c r="C264">
-        <v>9000</v>
+        <v>111056</v>
       </c>
       <c r="D264">
-        <v>7710</v>
+        <v>100349</v>
       </c>
       <c r="E264">
         <v>54201</v>
@@ -7071,13 +7065,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>32153</v>
+        <v>641153</v>
       </c>
       <c r="C265">
-        <v>9035</v>
+        <v>111557</v>
       </c>
       <c r="D265">
-        <v>7740</v>
+        <v>100801</v>
       </c>
       <c r="E265">
         <v>54388</v>
@@ -7094,13 +7088,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>32153</v>
+        <v>644031</v>
       </c>
       <c r="C266">
-        <v>9070</v>
+        <v>112058</v>
       </c>
       <c r="D266">
-        <v>7770</v>
+        <v>101252</v>
       </c>
       <c r="E266">
         <v>54576</v>
@@ -7117,13 +7111,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>32153</v>
+        <v>646908</v>
       </c>
       <c r="C267">
-        <v>9105</v>
+        <v>112560</v>
       </c>
       <c r="D267">
-        <v>7800</v>
+        <v>101704</v>
       </c>
       <c r="E267">
         <v>54764</v>
@@ -7140,13 +7134,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>32153</v>
+        <v>649786</v>
       </c>
       <c r="C268">
-        <v>9140</v>
+        <v>113061</v>
       </c>
       <c r="D268">
-        <v>7830</v>
+        <v>102155</v>
       </c>
       <c r="E268">
         <v>54952</v>
@@ -7163,13 +7157,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>32153</v>
+        <v>652664</v>
       </c>
       <c r="C269">
-        <v>9175</v>
+        <v>113562</v>
       </c>
       <c r="D269">
-        <v>7860</v>
+        <v>102606</v>
       </c>
       <c r="E269">
         <v>55140</v>
@@ -7186,13 +7180,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>32153</v>
+        <v>655541</v>
       </c>
       <c r="C270">
-        <v>9210</v>
+        <v>114063</v>
       </c>
       <c r="D270">
-        <v>7890</v>
+        <v>103058</v>
       </c>
       <c r="E270">
         <v>55328</v>
@@ -7209,13 +7203,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>32153</v>
+        <v>658419</v>
       </c>
       <c r="C271">
-        <v>9245</v>
+        <v>114565</v>
       </c>
       <c r="D271">
-        <v>7920</v>
+        <v>103509</v>
       </c>
       <c r="E271">
         <v>55516</v>
@@ -7232,13 +7226,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>32153</v>
+        <v>661297</v>
       </c>
       <c r="C272">
-        <v>9280</v>
+        <v>115066</v>
       </c>
       <c r="D272">
-        <v>7950</v>
+        <v>103961</v>
       </c>
       <c r="E272">
         <v>55703</v>
@@ -7255,13 +7249,13 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>32153</v>
+        <v>664175</v>
       </c>
       <c r="C273">
-        <v>9315</v>
+        <v>115567</v>
       </c>
       <c r="D273">
-        <v>7980</v>
+        <v>104412</v>
       </c>
       <c r="E273">
         <v>55891</v>
@@ -7278,13 +7272,13 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>32153</v>
+        <v>667052</v>
       </c>
       <c r="C274">
-        <v>9350</v>
+        <v>116068</v>
       </c>
       <c r="D274">
-        <v>8010</v>
+        <v>104864</v>
       </c>
       <c r="E274">
         <v>56079</v>
@@ -7301,13 +7295,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>32153</v>
+        <v>669930</v>
       </c>
       <c r="C275">
-        <v>9385</v>
+        <v>116570</v>
       </c>
       <c r="D275">
-        <v>8040</v>
+        <v>105315</v>
       </c>
       <c r="E275">
         <v>56267</v>
@@ -7324,13 +7318,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>32153</v>
+        <v>672808</v>
       </c>
       <c r="C276">
-        <v>9420</v>
+        <v>117071</v>
       </c>
       <c r="D276">
-        <v>8070</v>
+        <v>105766</v>
       </c>
       <c r="E276">
         <v>56455</v>
@@ -7347,13 +7341,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>32153</v>
+        <v>675685</v>
       </c>
       <c r="C277">
-        <v>9455</v>
+        <v>117572</v>
       </c>
       <c r="D277">
-        <v>8100</v>
+        <v>106218</v>
       </c>
       <c r="E277">
         <v>56643</v>
@@ -7370,13 +7364,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>32153</v>
+        <v>678563</v>
       </c>
       <c r="C278">
-        <v>9490</v>
+        <v>118073</v>
       </c>
       <c r="D278">
-        <v>8130</v>
+        <v>106669</v>
       </c>
       <c r="E278">
         <v>56830</v>
@@ -7393,13 +7387,13 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>32153</v>
+        <v>681441</v>
       </c>
       <c r="C279">
-        <v>9525</v>
+        <v>118575</v>
       </c>
       <c r="D279">
-        <v>8160</v>
+        <v>107121</v>
       </c>
       <c r="E279">
         <v>57018</v>
@@ -7416,13 +7410,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>32153</v>
+        <v>684319</v>
       </c>
       <c r="C280">
-        <v>9560</v>
+        <v>119076</v>
       </c>
       <c r="D280">
-        <v>8190</v>
+        <v>107572</v>
       </c>
       <c r="E280">
         <v>57206</v>
@@ -7439,13 +7433,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>32153</v>
+        <v>687196</v>
       </c>
       <c r="C281">
-        <v>9595</v>
+        <v>119577</v>
       </c>
       <c r="D281">
-        <v>8220</v>
+        <v>108024</v>
       </c>
       <c r="E281">
         <v>57394</v>
@@ -7462,13 +7456,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>32153</v>
+        <v>690074</v>
       </c>
       <c r="C282">
-        <v>9630</v>
+        <v>120078</v>
       </c>
       <c r="D282">
-        <v>8250</v>
+        <v>108475</v>
       </c>
       <c r="E282">
         <v>57582</v>
@@ -7485,13 +7479,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>32153</v>
+        <v>692952</v>
       </c>
       <c r="C283">
-        <v>9665</v>
+        <v>120580</v>
       </c>
       <c r="D283">
-        <v>8280</v>
+        <v>108926</v>
       </c>
       <c r="E283">
         <v>57770</v>
@@ -7508,13 +7502,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>32153</v>
+        <v>695829</v>
       </c>
       <c r="C284">
-        <v>9700</v>
+        <v>121081</v>
       </c>
       <c r="D284">
-        <v>8310</v>
+        <v>109378</v>
       </c>
       <c r="E284">
         <v>57958</v>
@@ -7531,13 +7525,13 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>32153</v>
+        <v>698707</v>
       </c>
       <c r="C285">
-        <v>9735</v>
+        <v>121582</v>
       </c>
       <c r="D285">
-        <v>8340</v>
+        <v>109829</v>
       </c>
       <c r="E285">
         <v>58145</v>
@@ -7554,13 +7548,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>32153</v>
+        <v>701585</v>
       </c>
       <c r="C286">
-        <v>9770</v>
+        <v>122083</v>
       </c>
       <c r="D286">
-        <v>8370</v>
+        <v>110281</v>
       </c>
       <c r="E286">
         <v>58333</v>
@@ -7577,13 +7571,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>32153</v>
+        <v>704463</v>
       </c>
       <c r="C287">
-        <v>9805</v>
+        <v>122585</v>
       </c>
       <c r="D287">
-        <v>8400</v>
+        <v>110732</v>
       </c>
       <c r="E287">
         <v>58521</v>
@@ -7600,13 +7594,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>32153</v>
+        <v>707340</v>
       </c>
       <c r="C288">
-        <v>9840</v>
+        <v>123086</v>
       </c>
       <c r="D288">
-        <v>8430</v>
+        <v>111184</v>
       </c>
       <c r="E288">
         <v>58709</v>
@@ -7623,13 +7617,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>32153</v>
+        <v>710218</v>
       </c>
       <c r="C289">
-        <v>9875</v>
+        <v>123587</v>
       </c>
       <c r="D289">
-        <v>8460</v>
+        <v>111635</v>
       </c>
       <c r="E289">
         <v>58897</v>
@@ -7646,13 +7640,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>32153</v>
+        <v>713096</v>
       </c>
       <c r="C290">
-        <v>9910</v>
+        <v>124088</v>
       </c>
       <c r="D290">
-        <v>8490</v>
+        <v>112086</v>
       </c>
       <c r="E290">
         <v>59085</v>
@@ -7669,13 +7663,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>32153</v>
+        <v>715973</v>
       </c>
       <c r="C291">
-        <v>9945</v>
+        <v>124589</v>
       </c>
       <c r="D291">
-        <v>8520</v>
+        <v>112538</v>
       </c>
       <c r="E291">
         <v>59272</v>
@@ -7692,13 +7686,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>32153</v>
+        <v>718851</v>
       </c>
       <c r="C292">
-        <v>9980</v>
+        <v>125091</v>
       </c>
       <c r="D292">
-        <v>8550</v>
+        <v>112989</v>
       </c>
       <c r="E292">
         <v>59460</v>
@@ -7715,13 +7709,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>32153</v>
+        <v>721729</v>
       </c>
       <c r="C293">
-        <v>10015</v>
+        <v>125592</v>
       </c>
       <c r="D293">
-        <v>8580</v>
+        <v>113441</v>
       </c>
       <c r="E293">
         <v>59648</v>
@@ -7738,13 +7732,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>32153</v>
+        <v>724607</v>
       </c>
       <c r="C294">
-        <v>10050</v>
+        <v>126093</v>
       </c>
       <c r="D294">
-        <v>8610</v>
+        <v>113892</v>
       </c>
       <c r="E294">
         <v>59836</v>
@@ -7761,13 +7755,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>32153</v>
+        <v>727484</v>
       </c>
       <c r="C295">
-        <v>10085</v>
+        <v>126594</v>
       </c>
       <c r="D295">
-        <v>8640</v>
+        <v>114344</v>
       </c>
       <c r="E295">
         <v>60024</v>
@@ -7784,13 +7778,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>32153</v>
+        <v>730362</v>
       </c>
       <c r="C296">
-        <v>10120</v>
+        <v>127096</v>
       </c>
       <c r="D296">
-        <v>8670</v>
+        <v>114795</v>
       </c>
       <c r="E296">
         <v>60212</v>
@@ -7807,13 +7801,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>32153</v>
+        <v>733240</v>
       </c>
       <c r="C297">
-        <v>10155</v>
+        <v>127597</v>
       </c>
       <c r="D297">
-        <v>8700</v>
+        <v>115246</v>
       </c>
       <c r="E297">
         <v>60400</v>
@@ -7830,13 +7824,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>32153</v>
+        <v>736117</v>
       </c>
       <c r="C298">
-        <v>10190</v>
+        <v>128098</v>
       </c>
       <c r="D298">
-        <v>8730</v>
+        <v>115698</v>
       </c>
       <c r="E298">
         <v>60587</v>
@@ -7853,13 +7847,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>32153</v>
+        <v>738995</v>
       </c>
       <c r="C299">
-        <v>10225</v>
+        <v>128599</v>
       </c>
       <c r="D299">
-        <v>8760</v>
+        <v>116149</v>
       </c>
       <c r="E299">
         <v>60775</v>
@@ -7876,13 +7870,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>32153</v>
+        <v>741873</v>
       </c>
       <c r="C300">
-        <v>10260</v>
+        <v>129101</v>
       </c>
       <c r="D300">
-        <v>8790</v>
+        <v>116601</v>
       </c>
       <c r="E300">
         <v>60963</v>
@@ -7899,13 +7893,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>32153</v>
+        <v>744751</v>
       </c>
       <c r="C301">
-        <v>10295</v>
+        <v>129602</v>
       </c>
       <c r="D301">
-        <v>8820</v>
+        <v>117052</v>
       </c>
       <c r="E301">
         <v>61151</v>
@@ -7922,13 +7916,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>32153</v>
+        <v>747628</v>
       </c>
       <c r="C302">
-        <v>10330</v>
+        <v>130103</v>
       </c>
       <c r="D302">
-        <v>8850</v>
+        <v>117504</v>
       </c>
       <c r="E302">
         <v>61339</v>
@@ -7945,13 +7939,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>32153</v>
+        <v>750506</v>
       </c>
       <c r="C303">
-        <v>10365</v>
+        <v>130604</v>
       </c>
       <c r="D303">
-        <v>8880</v>
+        <v>117955</v>
       </c>
       <c r="E303">
         <v>61527</v>
@@ -7968,13 +7962,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>32153</v>
+        <v>753384</v>
       </c>
       <c r="C304">
-        <v>10400</v>
+        <v>131106</v>
       </c>
       <c r="D304">
-        <v>8910</v>
+        <v>118406</v>
       </c>
       <c r="E304">
         <v>61715</v>
@@ -7991,13 +7985,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>32153</v>
+        <v>756261</v>
       </c>
       <c r="C305">
-        <v>10435</v>
+        <v>131607</v>
       </c>
       <c r="D305">
-        <v>8940</v>
+        <v>118858</v>
       </c>
       <c r="E305">
         <v>61902</v>
@@ -8014,13 +8008,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>32153</v>
+        <v>759139</v>
       </c>
       <c r="C306">
-        <v>10470</v>
+        <v>132108</v>
       </c>
       <c r="D306">
-        <v>8970</v>
+        <v>119309</v>
       </c>
       <c r="E306">
         <v>62090</v>
@@ -8037,13 +8031,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>32153</v>
+        <v>762017</v>
       </c>
       <c r="C307">
-        <v>10505</v>
+        <v>132609</v>
       </c>
       <c r="D307">
-        <v>9000</v>
+        <v>119761</v>
       </c>
       <c r="E307">
         <v>62278</v>
@@ -8060,13 +8054,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>32153</v>
+        <v>764894</v>
       </c>
       <c r="C308">
-        <v>10540</v>
+        <v>133111</v>
       </c>
       <c r="D308">
-        <v>9030</v>
+        <v>120212</v>
       </c>
       <c r="E308">
         <v>62466</v>
@@ -8083,13 +8077,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>32153</v>
+        <v>767772</v>
       </c>
       <c r="C309">
-        <v>10575</v>
+        <v>133612</v>
       </c>
       <c r="D309">
-        <v>9060</v>
+        <v>120664</v>
       </c>
       <c r="E309">
         <v>62654</v>
@@ -8106,13 +8100,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>32153</v>
+        <v>770650</v>
       </c>
       <c r="C310">
-        <v>10610</v>
+        <v>134113</v>
       </c>
       <c r="D310">
-        <v>9090</v>
+        <v>121115</v>
       </c>
       <c r="E310">
         <v>62842</v>
@@ -8129,13 +8123,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>32153</v>
+        <v>773528</v>
       </c>
       <c r="C311">
-        <v>10645</v>
+        <v>134614</v>
       </c>
       <c r="D311">
-        <v>9120</v>
+        <v>121566</v>
       </c>
       <c r="E311">
         <v>63029</v>
@@ -8152,13 +8146,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>32153</v>
+        <v>776405</v>
       </c>
       <c r="C312">
-        <v>10680</v>
+        <v>135116</v>
       </c>
       <c r="D312">
-        <v>9150</v>
+        <v>122018</v>
       </c>
       <c r="E312">
         <v>63217</v>
@@ -8175,13 +8169,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>32153</v>
+        <v>779283</v>
       </c>
       <c r="C313">
-        <v>10715</v>
+        <v>135617</v>
       </c>
       <c r="D313">
-        <v>9180</v>
+        <v>122469</v>
       </c>
       <c r="E313">
         <v>63405</v>
@@ -8198,13 +8192,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>32153</v>
+        <v>782161</v>
       </c>
       <c r="C314">
-        <v>10750</v>
+        <v>136118</v>
       </c>
       <c r="D314">
-        <v>9210</v>
+        <v>122921</v>
       </c>
       <c r="E314">
         <v>63593</v>
@@ -8221,13 +8215,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>32153</v>
+        <v>785038</v>
       </c>
       <c r="C315">
-        <v>10785</v>
+        <v>136619</v>
       </c>
       <c r="D315">
-        <v>9240</v>
+        <v>123372</v>
       </c>
       <c r="E315">
         <v>63781</v>
@@ -8244,13 +8238,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>32153</v>
+        <v>787916</v>
       </c>
       <c r="C316">
-        <v>10820</v>
+        <v>137120</v>
       </c>
       <c r="D316">
-        <v>9270</v>
+        <v>123824</v>
       </c>
       <c r="E316">
         <v>63969</v>
@@ -8267,13 +8261,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>32153</v>
+        <v>790794</v>
       </c>
       <c r="C317">
-        <v>10855</v>
+        <v>137622</v>
       </c>
       <c r="D317">
-        <v>9300</v>
+        <v>124275</v>
       </c>
       <c r="E317">
         <v>64157</v>
@@ -8290,13 +8284,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>32153</v>
+        <v>793672</v>
       </c>
       <c r="C318">
-        <v>10890</v>
+        <v>138123</v>
       </c>
       <c r="D318">
-        <v>9330</v>
+        <v>124726</v>
       </c>
       <c r="E318">
         <v>64344</v>
@@ -8313,13 +8307,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>32153</v>
+        <v>796549</v>
       </c>
       <c r="C319">
-        <v>10925</v>
+        <v>138624</v>
       </c>
       <c r="D319">
-        <v>9360</v>
+        <v>125178</v>
       </c>
       <c r="E319">
         <v>64532</v>
@@ -8336,13 +8330,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>32153</v>
+        <v>799427</v>
       </c>
       <c r="C320">
-        <v>10960</v>
+        <v>139125</v>
       </c>
       <c r="D320">
-        <v>9390</v>
+        <v>125629</v>
       </c>
       <c r="E320">
         <v>64720</v>
@@ -8359,13 +8353,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>32153</v>
+        <v>802305</v>
       </c>
       <c r="C321">
-        <v>10995</v>
+        <v>139627</v>
       </c>
       <c r="D321">
-        <v>9420</v>
+        <v>126081</v>
       </c>
       <c r="E321">
         <v>64908</v>
@@ -8382,13 +8376,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>32153</v>
+        <v>805182</v>
       </c>
       <c r="C322">
-        <v>11030</v>
+        <v>140128</v>
       </c>
       <c r="D322">
-        <v>9450</v>
+        <v>126532</v>
       </c>
       <c r="E322">
         <v>65096</v>
@@ -8405,13 +8399,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>32153</v>
+        <v>808060</v>
       </c>
       <c r="C323">
-        <v>11065</v>
+        <v>140629</v>
       </c>
       <c r="D323">
-        <v>9480</v>
+        <v>126983</v>
       </c>
       <c r="E323">
         <v>65284</v>
@@ -8428,13 +8422,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>32153</v>
+        <v>810938</v>
       </c>
       <c r="C324">
-        <v>11100</v>
+        <v>141130</v>
       </c>
       <c r="D324">
-        <v>9510</v>
+        <v>127435</v>
       </c>
       <c r="E324">
         <v>65471</v>
@@ -8451,13 +8445,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>32153</v>
+        <v>813816</v>
       </c>
       <c r="C325">
-        <v>11135</v>
+        <v>141632</v>
       </c>
       <c r="D325">
-        <v>9540</v>
+        <v>127886</v>
       </c>
       <c r="E325">
         <v>65659</v>
@@ -8474,13 +8468,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>32153</v>
+        <v>816693</v>
       </c>
       <c r="C326">
-        <v>11170</v>
+        <v>142133</v>
       </c>
       <c r="D326">
-        <v>9570</v>
+        <v>128338</v>
       </c>
       <c r="E326">
         <v>65847</v>
@@ -8497,13 +8491,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>32153</v>
+        <v>819571</v>
       </c>
       <c r="C327">
-        <v>11205</v>
+        <v>142634</v>
       </c>
       <c r="D327">
-        <v>9600</v>
+        <v>128789</v>
       </c>
       <c r="E327">
         <v>66035</v>
@@ -8520,13 +8514,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>32153</v>
+        <v>822449</v>
       </c>
       <c r="C328">
-        <v>11240</v>
+        <v>143135</v>
       </c>
       <c r="D328">
-        <v>9630</v>
+        <v>129241</v>
       </c>
       <c r="E328">
         <v>66223</v>
@@ -8543,13 +8537,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>32153</v>
+        <v>825326</v>
       </c>
       <c r="C329">
-        <v>11275</v>
+        <v>143637</v>
       </c>
       <c r="D329">
-        <v>9660</v>
+        <v>129692</v>
       </c>
       <c r="E329">
         <v>66411</v>
@@ -8566,13 +8560,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>32153</v>
+        <v>828204</v>
       </c>
       <c r="C330">
-        <v>11310</v>
+        <v>144138</v>
       </c>
       <c r="D330">
-        <v>9690</v>
+        <v>130143</v>
       </c>
       <c r="E330">
         <v>66599</v>
@@ -8589,13 +8583,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>32153</v>
+        <v>831082</v>
       </c>
       <c r="C331">
-        <v>11345</v>
+        <v>144639</v>
       </c>
       <c r="D331">
-        <v>9720</v>
+        <v>130595</v>
       </c>
       <c r="E331">
         <v>66786</v>
@@ -8612,13 +8606,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>32153</v>
+        <v>833960</v>
       </c>
       <c r="C332">
-        <v>11380</v>
+        <v>145140</v>
       </c>
       <c r="D332">
-        <v>9750</v>
+        <v>131046</v>
       </c>
       <c r="E332">
         <v>66974</v>
@@ -8635,13 +8629,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>32153</v>
+        <v>836837</v>
       </c>
       <c r="C333">
-        <v>11415</v>
+        <v>145642</v>
       </c>
       <c r="D333">
-        <v>9780</v>
+        <v>131498</v>
       </c>
       <c r="E333">
         <v>67162</v>
@@ -8658,13 +8652,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>32153</v>
+        <v>839715</v>
       </c>
       <c r="C334">
-        <v>11450</v>
+        <v>146143</v>
       </c>
       <c r="D334">
-        <v>9810</v>
+        <v>131949</v>
       </c>
       <c r="E334">
         <v>67350</v>
@@ -8681,13 +8675,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>32153</v>
+        <v>842593</v>
       </c>
       <c r="C335">
-        <v>11485</v>
+        <v>146644</v>
       </c>
       <c r="D335">
-        <v>9840</v>
+        <v>132401</v>
       </c>
       <c r="E335">
         <v>67538</v>
@@ -8704,13 +8698,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>32153</v>
+        <v>845470</v>
       </c>
       <c r="C336">
-        <v>11520</v>
+        <v>147145</v>
       </c>
       <c r="D336">
-        <v>9870</v>
+        <v>132852</v>
       </c>
       <c r="E336">
         <v>67726</v>
@@ -8727,13 +8721,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>32153</v>
+        <v>848348</v>
       </c>
       <c r="C337">
-        <v>11555</v>
+        <v>147647</v>
       </c>
       <c r="D337">
-        <v>9900</v>
+        <v>133303</v>
       </c>
       <c r="E337">
         <v>67913</v>
@@ -8750,13 +8744,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>32153</v>
+        <v>851226</v>
       </c>
       <c r="C338">
-        <v>11590</v>
+        <v>148148</v>
       </c>
       <c r="D338">
-        <v>9930</v>
+        <v>133755</v>
       </c>
       <c r="E338">
         <v>68101</v>
@@ -8773,13 +8767,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>32153</v>
+        <v>854103</v>
       </c>
       <c r="C339">
-        <v>11625</v>
+        <v>148649</v>
       </c>
       <c r="D339">
-        <v>9960</v>
+        <v>134206</v>
       </c>
       <c r="E339">
         <v>68289</v>
@@ -8796,13 +8790,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>32153</v>
+        <v>856981</v>
       </c>
       <c r="C340">
-        <v>11660</v>
+        <v>149150</v>
       </c>
       <c r="D340">
-        <v>9990</v>
+        <v>134658</v>
       </c>
       <c r="E340">
         <v>68477</v>
@@ -8819,13 +8813,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>32153</v>
+        <v>859859</v>
       </c>
       <c r="C341">
-        <v>11695</v>
+        <v>149651</v>
       </c>
       <c r="D341">
-        <v>10020</v>
+        <v>135109</v>
       </c>
       <c r="E341">
         <v>68665</v>
@@ -8842,13 +8836,13 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>32153</v>
+        <v>862737</v>
       </c>
       <c r="C342">
-        <v>11730</v>
+        <v>150153</v>
       </c>
       <c r="D342">
-        <v>10050</v>
+        <v>135561</v>
       </c>
       <c r="E342">
         <v>68853</v>
@@ -8865,13 +8859,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>32153</v>
+        <v>865614</v>
       </c>
       <c r="C343">
-        <v>11765</v>
+        <v>150654</v>
       </c>
       <c r="D343">
-        <v>10080</v>
+        <v>136012</v>
       </c>
       <c r="E343">
         <v>69041</v>
@@ -8888,13 +8882,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>32153</v>
+        <v>868492</v>
       </c>
       <c r="C344">
-        <v>11800</v>
+        <v>151155</v>
       </c>
       <c r="D344">
-        <v>10110</v>
+        <v>136463</v>
       </c>
       <c r="E344">
         <v>69228</v>
@@ -8911,13 +8905,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>32153</v>
+        <v>871370</v>
       </c>
       <c r="C345">
-        <v>11835</v>
+        <v>151656</v>
       </c>
       <c r="D345">
-        <v>10140</v>
+        <v>136915</v>
       </c>
       <c r="E345">
         <v>69416</v>
@@ -8934,13 +8928,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>32153</v>
+        <v>874247</v>
       </c>
       <c r="C346">
-        <v>11870</v>
+        <v>152158</v>
       </c>
       <c r="D346">
-        <v>10170</v>
+        <v>137366</v>
       </c>
       <c r="E346">
         <v>69604</v>
@@ -8957,13 +8951,13 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>32153</v>
+        <v>877125</v>
       </c>
       <c r="C347">
-        <v>11905</v>
+        <v>152659</v>
       </c>
       <c r="D347">
-        <v>10200</v>
+        <v>137818</v>
       </c>
       <c r="E347">
         <v>69792</v>
@@ -8980,13 +8974,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>32153</v>
+        <v>880003</v>
       </c>
       <c r="C348">
-        <v>11940</v>
+        <v>153160</v>
       </c>
       <c r="D348">
-        <v>10230</v>
+        <v>138269</v>
       </c>
       <c r="E348">
         <v>69980</v>
@@ -9003,13 +8997,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>32153</v>
+        <v>882881</v>
       </c>
       <c r="C349">
-        <v>11975</v>
+        <v>153661</v>
       </c>
       <c r="D349">
-        <v>10260</v>
+        <v>138721</v>
       </c>
       <c r="E349">
         <v>70168</v>
@@ -9026,13 +9020,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>32153</v>
+        <v>885758</v>
       </c>
       <c r="C350">
-        <v>12010</v>
+        <v>154163</v>
       </c>
       <c r="D350">
-        <v>10290</v>
+        <v>139172</v>
       </c>
       <c r="E350">
         <v>70356</v>
@@ -9049,13 +9043,13 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>32153</v>
+        <v>888636</v>
       </c>
       <c r="C351">
-        <v>12045</v>
+        <v>154664</v>
       </c>
       <c r="D351">
-        <v>10320</v>
+        <v>139623</v>
       </c>
       <c r="E351">
         <v>70543</v>
